--- a/capiq_data/in_process_data/IQ255743.xlsx
+++ b/capiq_data/in_process_data/IQ255743.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\capiq_3\in_process_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yedid\Desktop\credit_rating_predictions-main\capiq_data\in_process_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA3FD31E-6375-4AD3-8F9F-2EE8A8425F4D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBB214D5-A66F-4D69-A5F5-6F92483D68A7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="98" windowWidth="14400" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11596" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="CIQWBGuid" hidden="1">"ed0743af-8879-46c5-ab57-7f8a7c279921"</definedName>
+    <definedName name="CIQWBGuid" hidden="1">"35c9c2ed-485f-47b7-a8b7-866334b950d2"</definedName>
     <definedName name="CIQWBInfo" hidden="1">"{ ""CIQVersion"":""9.45.614.5792"" }"</definedName>
     <definedName name="IQ_CH">110000</definedName>
     <definedName name="IQ_CQ">5000</definedName>
@@ -41,40 +41,40 @@
     <definedName name="IQ_LTMMONTH" hidden="1">120000</definedName>
     <definedName name="IQ_MONTH">15000</definedName>
     <definedName name="IQ_MTD" hidden="1">800000</definedName>
-    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44257.9003703704</definedName>
+    <definedName name="IQ_NAMES_REVISION_DATE_" hidden="1">44278.8607986111</definedName>
     <definedName name="IQ_NTM">6000</definedName>
     <definedName name="IQ_QTD" hidden="1">750000</definedName>
     <definedName name="IQ_TODAY" hidden="1">0</definedName>
     <definedName name="IQ_WEEK">50000</definedName>
     <definedName name="IQ_YTD">3000</definedName>
     <definedName name="IQ_YTDMONTH" hidden="1">130000</definedName>
-    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$42</definedName>
-    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$42</definedName>
-    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$42</definedName>
-    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$42</definedName>
-    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$42</definedName>
-    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$42</definedName>
-    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$42</definedName>
-    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$42</definedName>
-    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$42</definedName>
-    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$42</definedName>
-    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$42</definedName>
-    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$42</definedName>
-    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$42</definedName>
-    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$42</definedName>
-    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$42</definedName>
-    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$42</definedName>
-    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$42</definedName>
-    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$42</definedName>
-    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$42</definedName>
-    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$42</definedName>
-    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$42</definedName>
-    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$42</definedName>
-    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$42</definedName>
-    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$42</definedName>
-    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$42</definedName>
-    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$42</definedName>
-    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$42</definedName>
+    <definedName name="IQRA1" hidden="1">Sheet!$A$2:$A$82</definedName>
+    <definedName name="IQRAA1" hidden="1">Sheet!$AA$2:$AA$82</definedName>
+    <definedName name="IQRB1" hidden="1">Sheet!$B$2:$B$82</definedName>
+    <definedName name="IQRC1" hidden="1">Sheet!$C$2:$C$82</definedName>
+    <definedName name="IQRD1" hidden="1">Sheet!$D$2:$D$82</definedName>
+    <definedName name="IQRE1" hidden="1">Sheet!$E$2:$E$82</definedName>
+    <definedName name="IQRF1" hidden="1">Sheet!$F$2:$F$82</definedName>
+    <definedName name="IQRG1" hidden="1">Sheet!$G$2:$G$82</definedName>
+    <definedName name="IQRH1" hidden="1">Sheet!$H$2:$H$82</definedName>
+    <definedName name="IQRI1" hidden="1">Sheet!$I$2:$I$82</definedName>
+    <definedName name="IQRJ1" hidden="1">Sheet!$J$2:$J$82</definedName>
+    <definedName name="IQRK1" hidden="1">Sheet!$K$2:$K$82</definedName>
+    <definedName name="IQRL1" hidden="1">Sheet!$L$2:$L$82</definedName>
+    <definedName name="IQRM1" hidden="1">Sheet!$M$2:$M$82</definedName>
+    <definedName name="IQRN1" hidden="1">Sheet!$N$2:$N$82</definedName>
+    <definedName name="IQRO1" hidden="1">Sheet!$O$2:$O$82</definedName>
+    <definedName name="IQRP1" hidden="1">Sheet!$P$2:$P$82</definedName>
+    <definedName name="IQRQ1" hidden="1">Sheet!$Q$2:$Q$82</definedName>
+    <definedName name="IQRR1" hidden="1">Sheet!$R$2:$R$82</definedName>
+    <definedName name="IQRS1" hidden="1">Sheet!$S$2:$S$82</definedName>
+    <definedName name="IQRT1" hidden="1">Sheet!$T$2:$T$82</definedName>
+    <definedName name="IQRU1" hidden="1">Sheet!$U$2:$U$82</definedName>
+    <definedName name="IQRV1" hidden="1">Sheet!$V$2:$V$82</definedName>
+    <definedName name="IQRW1" hidden="1">Sheet!$W$2:$W$82</definedName>
+    <definedName name="IQRX1" hidden="1">Sheet!$X$2:$X$82</definedName>
+    <definedName name="IQRY1" hidden="1">Sheet!$Y$2:$Y$82</definedName>
+    <definedName name="IQRZ1" hidden="1">Sheet!$Z$2:$Z$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -92,7 +92,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,126 @@
   </si>
   <si>
     <t>IQ_NI</t>
+  </si>
+  <si>
+    <t>FQ42000</t>
+  </si>
+  <si>
+    <t>FQ12001</t>
+  </si>
+  <si>
+    <t>FQ22001</t>
+  </si>
+  <si>
+    <t>FQ32001</t>
+  </si>
+  <si>
+    <t>FQ42001</t>
+  </si>
+  <si>
+    <t>FQ12002</t>
+  </si>
+  <si>
+    <t>FQ22002</t>
+  </si>
+  <si>
+    <t>FQ32002</t>
+  </si>
+  <si>
+    <t>FQ42002</t>
+  </si>
+  <si>
+    <t>FQ12003</t>
+  </si>
+  <si>
+    <t>FQ22003</t>
+  </si>
+  <si>
+    <t>FQ32003</t>
+  </si>
+  <si>
+    <t>FQ42003</t>
+  </si>
+  <si>
+    <t>FQ12004</t>
+  </si>
+  <si>
+    <t>FQ22004</t>
+  </si>
+  <si>
+    <t>FQ32004</t>
+  </si>
+  <si>
+    <t>FQ42004</t>
+  </si>
+  <si>
+    <t>FQ12005</t>
+  </si>
+  <si>
+    <t>FQ22005</t>
+  </si>
+  <si>
+    <t>FQ32005</t>
+  </si>
+  <si>
+    <t>FQ42005</t>
+  </si>
+  <si>
+    <t>FQ12006</t>
+  </si>
+  <si>
+    <t>FQ22006</t>
+  </si>
+  <si>
+    <t>FQ32006</t>
+  </si>
+  <si>
+    <t>FQ42006</t>
+  </si>
+  <si>
+    <t>FQ12007</t>
+  </si>
+  <si>
+    <t>FQ22007</t>
+  </si>
+  <si>
+    <t>FQ32007</t>
+  </si>
+  <si>
+    <t>FQ42007</t>
+  </si>
+  <si>
+    <t>FQ12008</t>
+  </si>
+  <si>
+    <t>FQ22008</t>
+  </si>
+  <si>
+    <t>FQ32008</t>
+  </si>
+  <si>
+    <t>FQ42008</t>
+  </si>
+  <si>
+    <t>FQ12009</t>
+  </si>
+  <si>
+    <t>FQ22009</t>
+  </si>
+  <si>
+    <t>FQ32009</t>
+  </si>
+  <si>
+    <t>FQ42009</t>
+  </si>
+  <si>
+    <t>FQ12010</t>
+  </si>
+  <si>
+    <t>FQ22010</t>
+  </si>
+  <si>
+    <t>FQ32010</t>
   </si>
   <si>
     <t>FQ42010</t>
@@ -639,7 +759,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA42"/>
+  <dimension ref="A1:AA82"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -733,37 +853,37 @@
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A2" s="1">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="B2" t="s">
         <v>27</v>
       </c>
       <c r="C2">
-        <v>67.908000000000001</v>
+        <v>9.1519999999999992</v>
       </c>
       <c r="D2">
-        <v>533.72</v>
+        <v>177.834</v>
       </c>
       <c r="E2">
-        <v>387.99599999999998</v>
+        <v>182.24199999999999</v>
       </c>
       <c r="F2">
-        <v>299.72300000000001</v>
+        <v>92.472999999999999</v>
       </c>
       <c r="G2">
-        <v>1975.346</v>
+        <v>369.66800000000001</v>
       </c>
       <c r="H2">
-        <v>3062.7640000000001</v>
+        <v>646.27800000000002</v>
       </c>
       <c r="I2">
-        <v>113.44</v>
+        <v>62.965000000000003</v>
       </c>
       <c r="J2">
-        <v>718.2</v>
+        <v>203.36</v>
       </c>
       <c r="K2">
-        <v>8.1000000000000003E-2</v>
+        <v>6.49</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -772,164 +892,164 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>666.62699999999995</v>
+        <v>189.30799999999999</v>
       </c>
       <c r="O2">
-        <v>1522.2449999999999</v>
+        <v>401.66</v>
       </c>
       <c r="P2">
-        <v>964.28099999999995</v>
+        <v>221.506</v>
       </c>
       <c r="Q2">
-        <v>275.911</v>
+        <v>5.3680000000000003</v>
       </c>
       <c r="R2">
-        <v>40543</v>
+        <v>36891</v>
       </c>
       <c r="S2">
-        <v>6880</v>
+        <v>3800</v>
       </c>
       <c r="T2">
-        <v>1540.519</v>
+        <v>244.61799999999999</v>
       </c>
       <c r="U2">
-        <v>906.55100000000004</v>
+        <v>13.954000000000001</v>
       </c>
       <c r="V2">
-        <v>100.38800000000001</v>
+        <v>5.8819999999999997</v>
       </c>
       <c r="W2">
         <v>0</v>
       </c>
       <c r="X2">
-        <v>221.52199999999999</v>
+        <v>-3.8050000000000002</v>
       </c>
       <c r="Y2">
-        <v>12.9</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>-14.172000000000001</v>
+        <v>0.125</v>
       </c>
       <c r="AA2">
-        <v>67.908000000000001</v>
+        <v>9.1519999999999992</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="B3" t="s">
         <v>28</v>
       </c>
       <c r="C3">
-        <v>33.039000000000001</v>
+        <v>8.5690000000000008</v>
       </c>
       <c r="D3">
-        <v>485.12099999999998</v>
+        <v>202.66800000000001</v>
       </c>
       <c r="E3">
-        <v>388.55399999999997</v>
+        <v>191.792</v>
       </c>
       <c r="F3">
-        <v>277.61099999999999</v>
+        <v>109.94799999999999</v>
       </c>
       <c r="G3">
-        <v>1797.31</v>
+        <v>380.54300000000001</v>
       </c>
       <c r="H3">
-        <v>2908.7730000000001</v>
+        <v>650.87900000000002</v>
       </c>
       <c r="I3">
-        <v>111.373</v>
+        <v>62.045999999999999</v>
       </c>
       <c r="J3">
-        <v>718.51400000000001</v>
+        <v>202.90100000000001</v>
       </c>
       <c r="K3">
-        <v>2.569</v>
+        <v>17.992000000000001</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>-225.76300000000001</v>
+        <v>-45.938000000000002</v>
       </c>
       <c r="N3">
-        <v>427.59100000000001</v>
+        <v>191.54</v>
       </c>
       <c r="O3">
-        <v>1295.2850000000001</v>
+        <v>403.61399999999998</v>
       </c>
       <c r="P3">
-        <v>741.48299999999995</v>
+        <v>220.893</v>
       </c>
       <c r="Q3">
-        <v>-278.64299999999997</v>
+        <v>-3.96</v>
       </c>
       <c r="R3">
-        <v>40633</v>
+        <v>36981</v>
       </c>
       <c r="S3">
         <v>0</v>
       </c>
       <c r="T3">
-        <v>1613.4880000000001</v>
+        <v>247.26499999999999</v>
       </c>
       <c r="U3">
-        <v>627.90800000000002</v>
+        <v>9.9939999999999998</v>
       </c>
       <c r="V3">
-        <v>19.782</v>
+        <v>2.2149999999999999</v>
       </c>
       <c r="W3">
         <v>0</v>
       </c>
       <c r="X3">
-        <v>-214.74299999999999</v>
+        <v>0.41499999999999998</v>
       </c>
       <c r="Y3">
-        <v>12.7</v>
+        <v>0</v>
       </c>
       <c r="Z3">
-        <v>-48.213999999999999</v>
+        <v>6.2E-2</v>
       </c>
       <c r="AA3">
-        <v>33.039000000000001</v>
+        <v>8.5690000000000008</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="B4" t="s">
         <v>29</v>
       </c>
       <c r="C4">
-        <v>40.048000000000002</v>
+        <v>11.561</v>
       </c>
       <c r="D4">
-        <v>521.65599999999995</v>
+        <v>195.35400000000001</v>
       </c>
       <c r="E4">
-        <v>394.91300000000001</v>
+        <v>186.708</v>
       </c>
       <c r="F4">
-        <v>293.13600000000002</v>
+        <v>108.24299999999999</v>
       </c>
       <c r="G4">
-        <v>1889.6559999999999</v>
+        <v>395.46600000000001</v>
       </c>
       <c r="H4">
-        <v>3044.2449999999999</v>
+        <v>660.65200000000004</v>
       </c>
       <c r="I4">
-        <v>120.514</v>
+        <v>60.615000000000002</v>
       </c>
       <c r="J4">
-        <v>718.7</v>
+        <v>194.715</v>
       </c>
       <c r="K4">
-        <v>0.66300000000000003</v>
+        <v>17.334</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -938,81 +1058,81 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>442.84399999999999</v>
+        <v>201.214</v>
       </c>
       <c r="O4">
-        <v>1318.33</v>
+        <v>404.31799999999998</v>
       </c>
       <c r="P4">
-        <v>732.69399999999996</v>
+        <v>212.04900000000001</v>
       </c>
       <c r="Q4">
-        <v>42.393000000000001</v>
+        <v>16.071999999999999</v>
       </c>
       <c r="R4">
-        <v>40724</v>
+        <v>37072</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>1725.915</v>
+        <v>256.334</v>
       </c>
       <c r="U4">
-        <v>670.30100000000004</v>
+        <v>26.065999999999999</v>
       </c>
       <c r="V4">
-        <v>110.29900000000001</v>
+        <v>34.783999999999999</v>
       </c>
       <c r="W4">
         <v>0</v>
       </c>
       <c r="X4">
-        <v>0.86</v>
+        <v>-7.2130000000000001</v>
       </c>
       <c r="Y4">
-        <v>12.631</v>
+        <v>0</v>
       </c>
       <c r="Z4">
-        <v>-51.518000000000001</v>
+        <v>0.03</v>
       </c>
       <c r="AA4">
-        <v>40.048000000000002</v>
+        <v>11.561</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="B5" t="s">
         <v>30</v>
       </c>
       <c r="C5">
-        <v>45.896999999999998</v>
+        <v>7.0469999999999997</v>
       </c>
       <c r="D5">
-        <v>516.51400000000001</v>
+        <v>186.10400000000001</v>
       </c>
       <c r="E5">
-        <v>375.03100000000001</v>
+        <v>186.39400000000001</v>
       </c>
       <c r="F5">
-        <v>296.17599999999999</v>
+        <v>104.747</v>
       </c>
       <c r="G5">
-        <v>1877.703</v>
+        <v>419.97399999999999</v>
       </c>
       <c r="H5">
-        <v>2969.7950000000001</v>
+        <v>684.50099999999998</v>
       </c>
       <c r="I5">
-        <v>113.476</v>
+        <v>67.834999999999994</v>
       </c>
       <c r="J5">
-        <v>718.9</v>
+        <v>191.28200000000001</v>
       </c>
       <c r="K5">
-        <v>0.10299999999999999</v>
+        <v>19.992999999999999</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -1021,81 +1141,81 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>415.32600000000002</v>
+        <v>214.69300000000001</v>
       </c>
       <c r="O5">
-        <v>1276.1489999999999</v>
+        <v>412.18</v>
       </c>
       <c r="P5">
-        <v>732.40300000000002</v>
+        <v>211.27500000000001</v>
       </c>
       <c r="Q5">
-        <v>0.72699999999999998</v>
+        <v>6.26</v>
       </c>
       <c r="R5">
-        <v>40816</v>
+        <v>37164</v>
       </c>
       <c r="S5">
         <v>0</v>
       </c>
       <c r="T5">
-        <v>1693.646</v>
+        <v>272.32100000000003</v>
       </c>
       <c r="U5">
-        <v>671.02800000000002</v>
+        <v>32.326000000000001</v>
       </c>
       <c r="V5">
-        <v>51.158000000000001</v>
+        <v>22.084</v>
       </c>
       <c r="W5">
         <v>0</v>
       </c>
       <c r="X5">
-        <v>2.056</v>
+        <v>-0.45300000000000001</v>
       </c>
       <c r="Y5">
-        <v>12.696999999999999</v>
+        <v>0</v>
       </c>
       <c r="Z5">
-        <v>-34.383000000000003</v>
+        <v>2.7E-2</v>
       </c>
       <c r="AA5">
-        <v>45.896999999999998</v>
+        <v>7.0469999999999997</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="B6" t="s">
         <v>31</v>
       </c>
       <c r="C6">
-        <v>59.238999999999997</v>
+        <v>17.001999999999999</v>
       </c>
       <c r="D6">
-        <v>550.23800000000006</v>
+        <v>233.38300000000001</v>
       </c>
       <c r="E6">
-        <v>398.67399999999998</v>
+        <v>194.4</v>
       </c>
       <c r="F6">
-        <v>310.96600000000001</v>
+        <v>132.43100000000001</v>
       </c>
       <c r="G6">
-        <v>1798.155</v>
+        <v>430.82799999999997</v>
       </c>
       <c r="H6">
-        <v>3096.8029999999999</v>
+        <v>684.02800000000002</v>
       </c>
       <c r="I6">
-        <v>129.124</v>
+        <v>64.903000000000006</v>
       </c>
       <c r="J6">
-        <v>719.1</v>
+        <v>188.423</v>
       </c>
       <c r="K6">
-        <v>0.214</v>
+        <v>4.2110000000000003</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -1104,164 +1224,164 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>459.11500000000001</v>
+        <v>199.10599999999999</v>
       </c>
       <c r="O6">
-        <v>1352.421</v>
+        <v>400.15100000000001</v>
       </c>
       <c r="P6">
-        <v>732.51199999999994</v>
+        <v>198.35400000000001</v>
       </c>
       <c r="Q6">
-        <v>-96.796999999999997</v>
+        <v>14.803000000000001</v>
       </c>
       <c r="R6">
-        <v>40908</v>
+        <v>37256</v>
       </c>
       <c r="S6">
-        <v>7030</v>
+        <v>4300</v>
       </c>
       <c r="T6">
-        <v>1744.3820000000001</v>
+        <v>283.87700000000001</v>
       </c>
       <c r="U6">
-        <v>574.23099999999999</v>
+        <v>47.128999999999998</v>
       </c>
       <c r="V6">
-        <v>78.576999999999998</v>
+        <v>40.411999999999999</v>
       </c>
       <c r="W6">
         <v>0</v>
       </c>
       <c r="X6">
-        <v>-1.7330000000000001</v>
+        <v>-12.911</v>
       </c>
       <c r="Y6">
-        <v>12.598000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z6">
-        <v>9.4109999999999996</v>
+        <v>-0.189</v>
       </c>
       <c r="AA6">
-        <v>59.238999999999997</v>
+        <v>17.001999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="B7" t="s">
         <v>32</v>
       </c>
       <c r="C7">
-        <v>31.004999999999999</v>
+        <v>18.773</v>
       </c>
       <c r="D7">
-        <v>486.27699999999999</v>
+        <v>210.18199999999999</v>
       </c>
       <c r="E7">
-        <v>387.61900000000003</v>
+        <v>196.00399999999999</v>
       </c>
       <c r="F7">
-        <v>278.58199999999999</v>
+        <v>121.34</v>
       </c>
       <c r="G7">
-        <v>1817.4480000000001</v>
+        <v>435.88099999999997</v>
       </c>
       <c r="H7">
-        <v>3187.8739999999998</v>
+        <v>686.75800000000004</v>
       </c>
       <c r="I7">
-        <v>109.571</v>
+        <v>67.847999999999999</v>
       </c>
       <c r="J7">
-        <v>719.3</v>
+        <v>174.34299999999999</v>
       </c>
       <c r="K7">
-        <v>0.40899999999999997</v>
+        <v>10.095000000000001</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>-0.22500000000000001</v>
+        <v>-40.774000000000001</v>
       </c>
       <c r="N7">
-        <v>444.08</v>
+        <v>194.45400000000001</v>
       </c>
       <c r="O7">
-        <v>1347.828</v>
+        <v>381.82299999999998</v>
       </c>
       <c r="P7">
-        <v>732.70799999999997</v>
+        <v>184.43799999999999</v>
       </c>
       <c r="Q7">
-        <v>-40.418999999999997</v>
+        <v>-2.1829999999999998</v>
       </c>
       <c r="R7">
-        <v>40999</v>
+        <v>37346</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="T7">
-        <v>1840.046</v>
+        <v>304.935</v>
       </c>
       <c r="U7">
-        <v>533.81200000000001</v>
+        <v>44.945999999999998</v>
       </c>
       <c r="V7">
-        <v>35.26</v>
+        <v>18.135999999999999</v>
       </c>
       <c r="W7">
         <v>0</v>
       </c>
       <c r="X7">
-        <v>3.7189999999999999</v>
+        <v>-12.002000000000001</v>
       </c>
       <c r="Y7">
-        <v>12.599</v>
+        <v>0</v>
       </c>
       <c r="Z7">
-        <v>-34.646999999999998</v>
+        <v>-0.23799999999999999</v>
       </c>
       <c r="AA7">
-        <v>31.004999999999999</v>
+        <v>18.773</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A8" s="1">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8">
-        <v>48.343000000000004</v>
+        <v>16.231999999999999</v>
       </c>
       <c r="D8">
-        <v>510.42200000000003</v>
+        <v>214.66</v>
       </c>
       <c r="E8">
-        <v>373.81700000000001</v>
+        <v>199.97300000000001</v>
       </c>
       <c r="F8">
-        <v>287.89999999999998</v>
+        <v>122.274</v>
       </c>
       <c r="G8">
-        <v>1811.0719999999999</v>
+        <v>441.83100000000002</v>
       </c>
       <c r="H8">
-        <v>3168.895</v>
+        <v>704.12400000000002</v>
       </c>
       <c r="I8">
-        <v>119.44799999999999</v>
+        <v>69.414000000000001</v>
       </c>
       <c r="J8">
-        <v>719.5</v>
+        <v>149.417</v>
       </c>
       <c r="K8">
-        <v>0.38300000000000001</v>
+        <v>11.156000000000001</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1270,81 +1390,81 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>417.18400000000003</v>
+        <v>202.70099999999999</v>
       </c>
       <c r="O8">
-        <v>1316.403</v>
+        <v>363.21</v>
       </c>
       <c r="P8">
-        <v>732.83699999999999</v>
+        <v>160.57300000000001</v>
       </c>
       <c r="Q8">
-        <v>-77.325000000000003</v>
+        <v>-19.291</v>
       </c>
       <c r="R8">
-        <v>41090</v>
+        <v>37437</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
       <c r="T8">
-        <v>1852.492</v>
+        <v>340.91399999999999</v>
       </c>
       <c r="U8">
-        <v>456.48700000000002</v>
+        <v>25.655000000000001</v>
       </c>
       <c r="V8">
-        <v>73.641999999999996</v>
+        <v>19.834</v>
       </c>
       <c r="W8">
         <v>0</v>
       </c>
       <c r="X8">
-        <v>2.8</v>
+        <v>-21.494</v>
       </c>
       <c r="Y8">
-        <v>12.554</v>
+        <v>0</v>
       </c>
       <c r="Z8">
-        <v>-109.99</v>
+        <v>0.124</v>
       </c>
       <c r="AA8">
-        <v>48.343000000000004</v>
+        <v>16.231999999999999</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A9" s="1">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="B9" t="s">
         <v>34</v>
       </c>
       <c r="C9">
-        <v>42.877000000000002</v>
+        <v>16.617000000000001</v>
       </c>
       <c r="D9">
-        <v>498.697</v>
+        <v>224.87799999999999</v>
       </c>
       <c r="E9">
-        <v>375.8</v>
+        <v>201.261</v>
       </c>
       <c r="F9">
-        <v>273.77</v>
+        <v>129.02600000000001</v>
       </c>
       <c r="G9">
-        <v>1845.441</v>
+        <v>462.53899999999999</v>
       </c>
       <c r="H9">
-        <v>3303.0160000000001</v>
+        <v>719.02200000000005</v>
       </c>
       <c r="I9">
-        <v>113.282</v>
+        <v>68.495999999999995</v>
       </c>
       <c r="J9">
-        <v>719.8</v>
+        <v>139.124</v>
       </c>
       <c r="K9">
-        <v>6.0000000000000001E-3</v>
+        <v>10.385</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1353,81 +1473,81 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>433.666</v>
+        <v>212.58199999999999</v>
       </c>
       <c r="O9">
-        <v>1367.5340000000001</v>
+        <v>362.49700000000001</v>
       </c>
       <c r="P9">
-        <v>732.53899999999999</v>
+        <v>149.50899999999999</v>
       </c>
       <c r="Q9">
-        <v>-30.03</v>
+        <v>13.595000000000001</v>
       </c>
       <c r="R9">
-        <v>41182</v>
+        <v>37529</v>
       </c>
       <c r="S9">
         <v>0</v>
       </c>
       <c r="T9">
-        <v>1935.482</v>
+        <v>356.52499999999998</v>
       </c>
       <c r="U9">
-        <v>426.45699999999999</v>
+        <v>39.25</v>
       </c>
       <c r="V9">
-        <v>71.341999999999999</v>
+        <v>32.18</v>
       </c>
       <c r="W9">
         <v>0</v>
       </c>
       <c r="X9">
-        <v>2.5539999999999998</v>
+        <v>-9.0839999999999996</v>
       </c>
       <c r="Y9">
-        <v>12.433</v>
+        <v>0</v>
       </c>
       <c r="Z9">
-        <v>-42.371000000000002</v>
+        <v>-0.872</v>
       </c>
       <c r="AA9">
-        <v>42.633000000000003</v>
+        <v>16.617000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A10" s="1">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
       </c>
       <c r="C10">
-        <v>43.252000000000002</v>
+        <v>16.241</v>
       </c>
       <c r="D10">
-        <v>573.83900000000006</v>
+        <v>243</v>
       </c>
       <c r="E10">
-        <v>398.73899999999998</v>
+        <v>209.28200000000001</v>
       </c>
       <c r="F10">
-        <v>314.54599999999999</v>
+        <v>136.845</v>
       </c>
       <c r="G10">
-        <v>1936.682</v>
+        <v>466.61399999999998</v>
       </c>
       <c r="H10">
-        <v>3443.5030000000002</v>
+        <v>720.70299999999997</v>
       </c>
       <c r="I10">
-        <v>130.86699999999999</v>
+        <v>50.232999999999997</v>
       </c>
       <c r="J10">
-        <v>720</v>
+        <v>105.768</v>
       </c>
       <c r="K10">
-        <v>1.55</v>
+        <v>6.726</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1436,164 +1556,164 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>472.4</v>
+        <v>208.93</v>
       </c>
       <c r="O10">
-        <v>1427.963</v>
+        <v>337.61599999999999</v>
       </c>
       <c r="P10">
-        <v>734.16399999999999</v>
+        <v>113.254</v>
       </c>
       <c r="Q10">
-        <v>36.930999999999997</v>
+        <v>-11.516999999999999</v>
       </c>
       <c r="R10">
-        <v>41274</v>
+        <v>37621</v>
       </c>
       <c r="S10">
-        <v>7380</v>
+        <v>4600</v>
       </c>
       <c r="T10">
-        <v>2015.54</v>
+        <v>383.08699999999999</v>
       </c>
       <c r="U10">
-        <v>463.38799999999998</v>
+        <v>27.733000000000001</v>
       </c>
       <c r="V10">
-        <v>95.784000000000006</v>
+        <v>35.607999999999997</v>
       </c>
       <c r="W10">
         <v>0</v>
       </c>
       <c r="X10">
-        <v>3.5150000000000001</v>
+        <v>-36.546999999999997</v>
       </c>
       <c r="Y10">
-        <v>12.414</v>
+        <v>0</v>
       </c>
       <c r="Z10">
-        <v>-35.610999999999997</v>
+        <v>-0.40799999999999997</v>
       </c>
       <c r="AA10">
-        <v>43.252000000000002</v>
+        <v>16.241</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A11" s="1">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="B11" t="s">
         <v>36</v>
       </c>
       <c r="C11">
-        <v>20.151</v>
+        <v>26.364000000000001</v>
       </c>
       <c r="D11">
-        <v>499.67200000000003</v>
+        <v>240.398</v>
       </c>
       <c r="E11">
-        <v>377.548</v>
+        <v>213.95500000000001</v>
       </c>
       <c r="F11">
-        <v>271.41199999999998</v>
+        <v>140.678</v>
       </c>
       <c r="G11">
-        <v>1865.18</v>
+        <v>473.80500000000001</v>
       </c>
       <c r="H11">
-        <v>3456.8029999999999</v>
+        <v>739.39700000000005</v>
       </c>
       <c r="I11">
-        <v>119.34</v>
+        <v>79.001000000000005</v>
       </c>
       <c r="J11">
-        <v>720.18600000000004</v>
+        <v>98.861999999999995</v>
       </c>
       <c r="K11">
-        <v>1.498</v>
+        <v>11.146000000000001</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>-9.2999999999999999E-2</v>
+        <v>-13.035</v>
       </c>
       <c r="N11">
-        <v>446.74</v>
+        <v>217.191</v>
       </c>
       <c r="O11">
-        <v>1425.586</v>
+        <v>325.392</v>
       </c>
       <c r="P11">
-        <v>734.28399999999999</v>
+        <v>110.008</v>
       </c>
       <c r="Q11">
-        <v>-94.759</v>
+        <v>-2.5099999999999998</v>
       </c>
       <c r="R11">
-        <v>41364</v>
+        <v>37711</v>
       </c>
       <c r="S11">
         <v>0</v>
       </c>
       <c r="T11">
-        <v>2031.2170000000001</v>
+        <v>414.005</v>
       </c>
       <c r="U11">
-        <v>368.62900000000002</v>
+        <v>25.222999999999999</v>
       </c>
       <c r="V11">
-        <v>24.016999999999999</v>
+        <v>21.72</v>
       </c>
       <c r="W11">
         <v>0</v>
       </c>
       <c r="X11">
-        <v>-7.4260000000000002</v>
+        <v>-2.4119999999999999</v>
       </c>
       <c r="Y11">
-        <v>12.4</v>
+        <v>0</v>
       </c>
       <c r="Z11">
-        <v>-9.6859999999999999</v>
+        <v>-1.0489999999999999</v>
       </c>
       <c r="AA11">
-        <v>20.151</v>
+        <v>26.364000000000001</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="B12" t="s">
         <v>37</v>
       </c>
       <c r="C12">
-        <v>34.601999999999997</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>525.32100000000003</v>
+        <v>239.32499999999999</v>
       </c>
       <c r="E12">
-        <v>395.97399999999999</v>
+        <v>211.922</v>
       </c>
       <c r="F12">
-        <v>300.101</v>
+        <v>135.06</v>
       </c>
       <c r="G12">
-        <v>1903.0360000000001</v>
+        <v>494.38600000000002</v>
       </c>
       <c r="H12">
-        <v>3482.8209999999999</v>
+        <v>775.37</v>
       </c>
       <c r="I12">
-        <v>129.119</v>
+        <v>52.890999999999998</v>
       </c>
       <c r="J12">
-        <v>720.4</v>
+        <v>98.94</v>
       </c>
       <c r="K12">
-        <v>1.4930000000000001</v>
+        <v>13.404999999999999</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1602,81 +1722,81 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>431.24400000000003</v>
+        <v>219.11500000000001</v>
       </c>
       <c r="O12">
-        <v>1411.8789999999999</v>
+        <v>326.77600000000001</v>
       </c>
       <c r="P12">
-        <v>734.49300000000005</v>
+        <v>112.345</v>
       </c>
       <c r="Q12">
-        <v>-1.63</v>
+        <v>0</v>
       </c>
       <c r="R12">
-        <v>41455</v>
+        <v>37802</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="T12">
-        <v>2070.942</v>
+        <v>448.59399999999999</v>
       </c>
       <c r="U12">
-        <v>366.99900000000002</v>
+        <v>28.827999999999999</v>
       </c>
       <c r="V12">
-        <v>19.736999999999998</v>
+        <v>0</v>
       </c>
       <c r="W12">
         <v>0</v>
       </c>
       <c r="X12">
-        <v>1.29</v>
+        <v>0</v>
       </c>
       <c r="Y12">
-        <v>12.4</v>
+        <v>0</v>
       </c>
       <c r="Z12">
-        <v>-0.98699999999999999</v>
+        <v>0</v>
       </c>
       <c r="AA12">
-        <v>34.601999999999997</v>
+        <v>20.956</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="B13" t="s">
         <v>38</v>
       </c>
       <c r="C13">
-        <v>-7.0990000000000002</v>
+        <v>9.66</v>
       </c>
       <c r="D13">
-        <v>505.06599999999997</v>
+        <v>241.81</v>
       </c>
       <c r="E13">
-        <v>383.471</v>
+        <v>217.67400000000001</v>
       </c>
       <c r="F13">
-        <v>284.21600000000001</v>
+        <v>134.99199999999999</v>
       </c>
       <c r="G13">
-        <v>1674.5429999999999</v>
+        <v>625.74</v>
       </c>
       <c r="H13">
-        <v>3280.4079999999999</v>
+        <v>925.68299999999999</v>
       </c>
       <c r="I13">
-        <v>131.899</v>
+        <v>60.515999999999998</v>
       </c>
       <c r="J13">
-        <v>423.2</v>
+        <v>225.196</v>
       </c>
       <c r="K13">
-        <v>1.5049999999999999</v>
+        <v>9.6120000000000001</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -1685,81 +1805,81 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>462.88499999999999</v>
+        <v>232.32599999999999</v>
       </c>
       <c r="O13">
-        <v>1156.1679999999999</v>
+        <v>466.34399999999999</v>
       </c>
       <c r="P13">
-        <v>437.24599999999998</v>
+        <v>234.80799999999999</v>
       </c>
       <c r="Q13">
-        <v>-75.206000000000003</v>
+        <v>111.92</v>
       </c>
       <c r="R13">
-        <v>41547</v>
+        <v>37894</v>
       </c>
       <c r="S13">
         <v>0</v>
       </c>
       <c r="T13">
-        <v>2124.2399999999998</v>
+        <v>459.339</v>
       </c>
       <c r="U13">
-        <v>291.79300000000001</v>
+        <v>140.74799999999999</v>
       </c>
       <c r="V13">
-        <v>54.832000000000001</v>
+        <v>42.972000000000001</v>
       </c>
       <c r="W13">
         <v>0</v>
       </c>
       <c r="X13">
-        <v>-309.32900000000001</v>
+        <v>108.337</v>
       </c>
       <c r="Y13">
-        <v>12.340999999999999</v>
+        <v>0</v>
       </c>
       <c r="Z13">
-        <v>197.733</v>
+        <v>-3.0059999999999998</v>
       </c>
       <c r="AA13">
-        <v>-7.0990000000000002</v>
+        <v>9.66</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="B14" t="s">
         <v>39</v>
       </c>
       <c r="C14">
-        <v>30.135999999999999</v>
+        <v>19.190999999999999</v>
       </c>
       <c r="D14">
-        <v>602.63499999999999</v>
+        <v>258.09800000000001</v>
       </c>
       <c r="E14">
-        <v>422.66</v>
+        <v>234.08500000000001</v>
       </c>
       <c r="F14">
-        <v>322.74900000000002</v>
+        <v>145.5</v>
       </c>
       <c r="G14">
-        <v>1757.479</v>
+        <v>655.39800000000002</v>
       </c>
       <c r="H14">
-        <v>3388.79</v>
+        <v>992.596</v>
       </c>
       <c r="I14">
-        <v>148.51</v>
+        <v>53.994999999999997</v>
       </c>
       <c r="J14">
-        <v>423.2</v>
+        <v>225.83500000000001</v>
       </c>
       <c r="K14">
-        <v>1.5860000000000001</v>
+        <v>10.215</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1768,164 +1888,164 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>487.47199999999998</v>
+        <v>239.25200000000001</v>
       </c>
       <c r="O14">
-        <v>1202.068</v>
+        <v>496.78899999999999</v>
       </c>
       <c r="P14">
-        <v>437.40100000000001</v>
+        <v>236.25800000000001</v>
       </c>
       <c r="Q14">
-        <v>39.758000000000003</v>
+        <v>-75.352999999999994</v>
       </c>
       <c r="R14">
-        <v>41639</v>
+        <v>37986</v>
       </c>
       <c r="S14">
-        <v>7750</v>
+        <v>4800</v>
       </c>
       <c r="T14">
-        <v>2186.7220000000002</v>
+        <v>495.80700000000002</v>
       </c>
       <c r="U14">
-        <v>331.55099999999999</v>
+        <v>65.394999999999996</v>
       </c>
       <c r="V14">
-        <v>70.55</v>
+        <v>38.076000000000001</v>
       </c>
       <c r="W14">
         <v>0</v>
       </c>
       <c r="X14">
-        <v>3.7679999999999998</v>
+        <v>1.1040000000000001</v>
       </c>
       <c r="Y14">
-        <v>12.414999999999999</v>
+        <v>0</v>
       </c>
       <c r="Z14">
-        <v>-7.9429999999999996</v>
+        <v>-84.691000000000003</v>
       </c>
       <c r="AA14">
-        <v>30.135999999999999</v>
+        <v>19.190999999999999</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="B15" t="s">
         <v>40</v>
       </c>
       <c r="C15">
-        <v>6.6680000000000001</v>
+        <v>21.978000000000002</v>
       </c>
       <c r="D15">
-        <v>509.34399999999999</v>
+        <v>262.74900000000002</v>
       </c>
       <c r="E15">
-        <v>383.928</v>
+        <v>228.92500000000001</v>
       </c>
       <c r="F15">
-        <v>275.28899999999999</v>
+        <v>149.26400000000001</v>
       </c>
       <c r="G15">
-        <v>1766.81</v>
+        <v>662.94899999999996</v>
       </c>
       <c r="H15">
-        <v>3441.3780000000002</v>
+        <v>997.56299999999999</v>
       </c>
       <c r="I15">
-        <v>130.864</v>
+        <v>57.033000000000001</v>
       </c>
       <c r="J15">
-        <v>423.3</v>
+        <v>226.17099999999999</v>
       </c>
       <c r="K15">
-        <v>1.532</v>
+        <v>8.5299999999999994</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>-2.0550000000000002</v>
       </c>
       <c r="M15">
-        <v>-0.11600000000000001</v>
+        <v>-0.11700000000000001</v>
       </c>
       <c r="N15">
-        <v>481.25099999999998</v>
+        <v>221.196</v>
       </c>
       <c r="O15">
-        <v>1208.7750000000001</v>
+        <v>479.24099999999999</v>
       </c>
       <c r="P15">
-        <v>437.34300000000002</v>
+        <v>234.70099999999999</v>
       </c>
       <c r="Q15">
-        <v>32.956000000000003</v>
+        <v>-23.247</v>
       </c>
       <c r="R15">
-        <v>41729</v>
+        <v>38077</v>
       </c>
       <c r="S15">
         <v>0</v>
       </c>
       <c r="T15">
-        <v>2232.6030000000001</v>
+        <v>518.322</v>
       </c>
       <c r="U15">
-        <v>364.50700000000001</v>
+        <v>141.548</v>
       </c>
       <c r="V15">
-        <v>65.569999999999993</v>
+        <v>27.306000000000001</v>
       </c>
       <c r="W15">
         <v>0</v>
       </c>
       <c r="X15">
-        <v>3.49</v>
+        <v>-2.4E-2</v>
       </c>
       <c r="Y15">
-        <v>12.311</v>
+        <v>0</v>
       </c>
       <c r="Z15">
-        <v>-0.745</v>
+        <v>-18.579000000000001</v>
       </c>
       <c r="AA15">
-        <v>6.6680000000000001</v>
+        <v>21.978000000000002</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
       </c>
       <c r="C16">
-        <v>31.631</v>
+        <v>22.863</v>
       </c>
       <c r="D16">
-        <v>536.83199999999999</v>
+        <v>260.54599999999999</v>
       </c>
       <c r="E16">
-        <v>378.89100000000002</v>
+        <v>234.00299999999999</v>
       </c>
       <c r="F16">
-        <v>297.24200000000002</v>
+        <v>149.661</v>
       </c>
       <c r="G16">
-        <v>1767.4939999999999</v>
+        <v>660.38699999999994</v>
       </c>
       <c r="H16">
-        <v>3467.7510000000002</v>
+        <v>1022.76</v>
       </c>
       <c r="I16">
-        <v>125.461</v>
+        <v>67.34</v>
       </c>
       <c r="J16">
-        <v>423.3</v>
+        <v>226.09800000000001</v>
       </c>
       <c r="K16">
-        <v>1.532</v>
+        <v>9.9870000000000001</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1934,81 +2054,81 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>480.24799999999999</v>
+        <v>211.137</v>
       </c>
       <c r="O16">
-        <v>1217.807</v>
+        <v>478.24</v>
       </c>
       <c r="P16">
-        <v>437.33199999999999</v>
+        <v>236.08500000000001</v>
       </c>
       <c r="Q16">
-        <v>20.163</v>
+        <v>-8.8689999999999998</v>
       </c>
       <c r="R16">
-        <v>41820</v>
+        <v>38168</v>
       </c>
       <c r="S16">
         <v>0</v>
       </c>
       <c r="T16">
-        <v>2249.944</v>
+        <v>544.52</v>
       </c>
       <c r="U16">
-        <v>384.67</v>
+        <v>155.32900000000001</v>
       </c>
       <c r="V16">
-        <v>76.872</v>
+        <v>20.238</v>
       </c>
       <c r="W16">
         <v>0</v>
       </c>
       <c r="X16">
-        <v>2.8079999999999998</v>
+        <v>3.2770000000000001</v>
       </c>
       <c r="Y16">
-        <v>12.307</v>
+        <v>0</v>
       </c>
       <c r="Z16">
-        <v>16.753</v>
+        <v>-22.035</v>
       </c>
       <c r="AA16">
-        <v>31.631</v>
+        <v>22.863</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17">
-        <v>11.509</v>
+        <v>6.29</v>
       </c>
       <c r="D17">
-        <v>530.64400000000001</v>
+        <v>258.84899999999999</v>
       </c>
       <c r="E17">
-        <v>354.40100000000001</v>
+        <v>228.18600000000001</v>
       </c>
       <c r="F17">
-        <v>288.57600000000002</v>
+        <v>142.81299999999999</v>
       </c>
       <c r="G17">
-        <v>1764.4449999999999</v>
+        <v>658.154</v>
       </c>
       <c r="H17">
-        <v>3386.0239999999999</v>
+        <v>1092.3699999999999</v>
       </c>
       <c r="I17">
-        <v>126.64</v>
+        <v>55.524000000000001</v>
       </c>
       <c r="J17">
-        <v>423.4</v>
+        <v>226.00899999999999</v>
       </c>
       <c r="K17">
-        <v>1.21</v>
+        <v>8.4570000000000007</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -2017,81 +2137,81 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>503.78300000000002</v>
+        <v>272.37400000000002</v>
       </c>
       <c r="O17">
-        <v>1209.2940000000001</v>
+        <v>538.53099999999995</v>
       </c>
       <c r="P17">
-        <v>437.21</v>
+        <v>234.46600000000001</v>
       </c>
       <c r="Q17">
-        <v>39.923000000000002</v>
+        <v>33.234999999999999</v>
       </c>
       <c r="R17">
-        <v>41912</v>
+        <v>38260</v>
       </c>
       <c r="S17">
         <v>0</v>
       </c>
       <c r="T17">
-        <v>2176.73</v>
+        <v>553.83900000000006</v>
       </c>
       <c r="U17">
-        <v>424.59300000000002</v>
+        <v>125.154</v>
       </c>
       <c r="V17">
-        <v>90.653999999999996</v>
+        <v>24.518999999999998</v>
       </c>
       <c r="W17">
         <v>0</v>
       </c>
       <c r="X17">
-        <v>1.766</v>
+        <v>-9.7579999999999991</v>
       </c>
       <c r="Y17">
-        <v>12.339</v>
+        <v>0</v>
       </c>
       <c r="Z17">
-        <v>-17.457999999999998</v>
+        <v>65.063999999999993</v>
       </c>
       <c r="AA17">
-        <v>11.509</v>
+        <v>6.29</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
       </c>
       <c r="C18">
-        <v>39.036999999999999</v>
+        <v>17.111000000000001</v>
       </c>
       <c r="D18">
-        <v>598.22400000000005</v>
+        <v>307.86799999999999</v>
       </c>
       <c r="E18">
-        <v>377.64</v>
+        <v>261.24299999999999</v>
       </c>
       <c r="F18">
-        <v>329.01</v>
+        <v>168.33500000000001</v>
       </c>
       <c r="G18">
-        <v>1716.367</v>
+        <v>908.46</v>
       </c>
       <c r="H18">
-        <v>3341.2779999999998</v>
+        <v>1371.6179999999999</v>
       </c>
       <c r="I18">
-        <v>128.608</v>
+        <v>71.194000000000003</v>
       </c>
       <c r="J18">
-        <v>423.5</v>
+        <v>425.97899999999998</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>9.0549999999999997</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -2100,164 +2220,164 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>446.76100000000002</v>
+        <v>315.375</v>
       </c>
       <c r="O18">
-        <v>1156.123</v>
+        <v>774.73</v>
       </c>
       <c r="P18">
-        <v>435.97500000000002</v>
+        <v>435.43599999999998</v>
       </c>
       <c r="Q18">
-        <v>-11.342000000000001</v>
+        <v>129.22</v>
       </c>
       <c r="R18">
-        <v>42004</v>
+        <v>38352</v>
       </c>
       <c r="S18">
-        <v>7600</v>
+        <v>5200</v>
       </c>
       <c r="T18">
-        <v>2185.1550000000002</v>
+        <v>596.88800000000003</v>
       </c>
       <c r="U18">
-        <v>413.25099999999998</v>
+        <v>195.73400000000001</v>
       </c>
       <c r="V18">
-        <v>40.216000000000001</v>
+        <v>51.03</v>
       </c>
       <c r="W18">
         <v>0</v>
       </c>
       <c r="X18">
-        <v>3.625</v>
+        <v>199.732</v>
       </c>
       <c r="Y18">
-        <v>12.21</v>
+        <v>0</v>
       </c>
       <c r="Z18">
-        <v>-8.1809999999999992</v>
+        <v>-107.60599999999999</v>
       </c>
       <c r="AA18">
-        <v>39.036999999999999</v>
+        <v>17.111000000000001</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="B19" t="s">
         <v>44</v>
       </c>
       <c r="C19">
-        <v>17.818000000000001</v>
+        <v>33.494</v>
       </c>
       <c r="D19">
-        <v>472.82100000000003</v>
+        <v>299.17099999999999</v>
       </c>
       <c r="E19">
-        <v>342.22300000000001</v>
+        <v>250.96799999999999</v>
       </c>
       <c r="F19">
-        <v>270.10599999999999</v>
+        <v>166.40600000000001</v>
       </c>
       <c r="G19">
-        <v>1701.8440000000001</v>
+        <v>921.05499999999995</v>
       </c>
       <c r="H19">
-        <v>3326.1959999999999</v>
+        <v>1398.914</v>
       </c>
       <c r="I19">
-        <v>250.81299999999999</v>
+        <v>67.144999999999996</v>
       </c>
       <c r="J19">
-        <v>423.5</v>
+        <v>425.80700000000002</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>9.6579999999999995</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>-6.6000000000000003E-2</v>
+        <v>-0.121</v>
       </c>
       <c r="N19">
-        <v>416.88200000000001</v>
+        <v>298.48</v>
       </c>
       <c r="O19">
-        <v>1127.683</v>
+        <v>774.62800000000004</v>
       </c>
       <c r="P19">
-        <v>435.92500000000001</v>
+        <v>435.46499999999997</v>
       </c>
       <c r="Q19">
-        <v>12.477</v>
+        <v>122.164</v>
       </c>
       <c r="R19">
-        <v>42094</v>
+        <v>38442</v>
       </c>
       <c r="S19">
         <v>0</v>
       </c>
       <c r="T19">
-        <v>2198.5129999999999</v>
+        <v>624.28599999999994</v>
       </c>
       <c r="U19">
-        <v>425.72800000000001</v>
+        <v>317.89800000000002</v>
       </c>
       <c r="V19">
-        <v>29.446000000000002</v>
+        <v>24.882999999999999</v>
       </c>
       <c r="W19">
         <v>0</v>
       </c>
       <c r="X19">
-        <v>-0.33100000000000002</v>
+        <v>2.7949999999999999</v>
       </c>
       <c r="Y19">
-        <v>12.161</v>
+        <v>0</v>
       </c>
       <c r="Z19">
-        <v>1.2869999999999999</v>
+        <v>101.98399999999999</v>
       </c>
       <c r="AA19">
-        <v>17.818000000000001</v>
+        <v>33.494</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="B20" t="s">
         <v>45</v>
       </c>
       <c r="C20">
-        <v>28.422999999999998</v>
+        <v>18.388000000000002</v>
       </c>
       <c r="D20">
-        <v>506.10199999999998</v>
+        <v>291.30200000000002</v>
       </c>
       <c r="E20">
-        <v>354.161</v>
+        <v>243.387</v>
       </c>
       <c r="F20">
-        <v>279.59699999999998</v>
+        <v>160.643</v>
       </c>
       <c r="G20">
-        <v>1741.9280000000001</v>
+        <v>917.35799999999995</v>
       </c>
       <c r="H20">
-        <v>3525.3429999999998</v>
+        <v>1392.575</v>
       </c>
       <c r="I20">
-        <v>239.84700000000001</v>
+        <v>69.254000000000005</v>
       </c>
       <c r="J20">
-        <v>423.6</v>
+        <v>425.86399999999998</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>11.478999999999999</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -2266,81 +2386,81 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>403.89400000000001</v>
+        <v>290.84800000000001</v>
       </c>
       <c r="O20">
-        <v>1166.4459999999999</v>
+        <v>763.93100000000004</v>
       </c>
       <c r="P20">
-        <v>435.928</v>
+        <v>437.34300000000002</v>
       </c>
       <c r="Q20">
-        <v>24.405000000000001</v>
+        <v>-65.766000000000005</v>
       </c>
       <c r="R20">
-        <v>42185</v>
+        <v>38533</v>
       </c>
       <c r="S20">
         <v>0</v>
       </c>
       <c r="T20">
-        <v>2358.8969999999999</v>
+        <v>628.64400000000001</v>
       </c>
       <c r="U20">
-        <v>450.13299999999998</v>
+        <v>252.13200000000001</v>
       </c>
       <c r="V20">
-        <v>38.533000000000001</v>
+        <v>2.9350000000000001</v>
       </c>
       <c r="W20">
         <v>0</v>
       </c>
       <c r="X20">
-        <v>3.0609999999999999</v>
+        <v>2.2970000000000002</v>
       </c>
       <c r="Y20">
-        <v>12.06</v>
+        <v>0</v>
       </c>
       <c r="Z20">
-        <v>6.0069999999999997</v>
+        <v>-27.669</v>
       </c>
       <c r="AA20">
-        <v>28.422999999999998</v>
+        <v>18.388000000000002</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="B21" t="s">
         <v>46</v>
       </c>
       <c r="C21">
-        <v>17.37</v>
+        <v>16.219000000000001</v>
       </c>
       <c r="D21">
-        <v>469.96100000000001</v>
+        <v>283.22500000000002</v>
       </c>
       <c r="E21">
-        <v>341.548</v>
+        <v>244.46600000000001</v>
       </c>
       <c r="F21">
-        <v>263.452</v>
+        <v>156.81200000000001</v>
       </c>
       <c r="G21">
-        <v>1794.4159999999999</v>
+        <v>952.64300000000003</v>
       </c>
       <c r="H21">
-        <v>3666.3960000000002</v>
+        <v>1425.991</v>
       </c>
       <c r="I21">
-        <v>268.22800000000001</v>
+        <v>68.075999999999993</v>
       </c>
       <c r="J21">
-        <v>423.6</v>
+        <v>425.81200000000001</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>8.9849999999999994</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -2349,81 +2469,81 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>435.23500000000001</v>
+        <v>299.233</v>
       </c>
       <c r="O21">
-        <v>1236.6669999999999</v>
+        <v>777.03399999999999</v>
       </c>
       <c r="P21">
-        <v>436.10700000000003</v>
+        <v>434.79700000000003</v>
       </c>
       <c r="Q21">
-        <v>57.195999999999998</v>
+        <v>-8.1519999999999992</v>
       </c>
       <c r="R21">
-        <v>42277</v>
+        <v>38625</v>
       </c>
       <c r="S21">
         <v>0</v>
       </c>
       <c r="T21">
-        <v>2429.7289999999998</v>
+        <v>648.95699999999999</v>
       </c>
       <c r="U21">
-        <v>507.32900000000001</v>
+        <v>243.98</v>
       </c>
       <c r="V21">
-        <v>82.278999999999996</v>
+        <v>31.073</v>
       </c>
       <c r="W21">
         <v>0</v>
       </c>
       <c r="X21">
-        <v>2.1230000000000002</v>
+        <v>-0.58899999999999997</v>
       </c>
       <c r="Y21">
-        <v>12.128</v>
+        <v>0</v>
       </c>
       <c r="Z21">
-        <v>-1.548</v>
+        <v>-23.260999999999999</v>
       </c>
       <c r="AA21">
-        <v>17.37</v>
+        <v>16.219000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A22" s="1">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="B22" t="s">
         <v>47</v>
       </c>
       <c r="C22">
-        <v>49.481999999999999</v>
+        <v>13.452</v>
       </c>
       <c r="D22">
-        <v>570.55700000000002</v>
+        <v>307.28699999999998</v>
       </c>
       <c r="E22">
-        <v>391.48500000000001</v>
+        <v>247.19200000000001</v>
       </c>
       <c r="F22">
-        <v>308.51499999999999</v>
+        <v>162.625</v>
       </c>
       <c r="G22">
-        <v>1777.596</v>
+        <v>1008.211</v>
       </c>
       <c r="H22">
-        <v>3709.7179999999998</v>
+        <v>1426.5820000000001</v>
       </c>
       <c r="I22">
-        <v>122.39100000000001</v>
+        <v>72.95</v>
       </c>
       <c r="J22">
-        <v>421.9</v>
+        <v>425.68700000000001</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>2.95</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -2432,164 +2552,164 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>441.351</v>
+        <v>319.24299999999999</v>
       </c>
       <c r="O22">
-        <v>1219.2149999999999</v>
+        <v>768.60799999999995</v>
       </c>
       <c r="P22">
-        <v>434.18099999999998</v>
+        <v>429.02800000000002</v>
       </c>
       <c r="Q22">
-        <v>-49.78</v>
+        <v>52.735999999999997</v>
       </c>
       <c r="R22">
-        <v>42369</v>
+        <v>38717</v>
       </c>
       <c r="S22">
-        <v>7770</v>
+        <v>5200</v>
       </c>
       <c r="T22">
-        <v>2490.5030000000002</v>
+        <v>657.97400000000005</v>
       </c>
       <c r="U22">
-        <v>457.54899999999998</v>
+        <v>296.71600000000001</v>
       </c>
       <c r="V22">
-        <v>35.951999999999998</v>
+        <v>49.408999999999999</v>
       </c>
       <c r="W22">
         <v>0</v>
       </c>
       <c r="X22">
-        <v>3.7280000000000002</v>
+        <v>-3.2130000000000001</v>
       </c>
       <c r="Y22">
-        <v>11.983000000000001</v>
+        <v>0</v>
       </c>
       <c r="Z22">
-        <v>-50.756</v>
+        <v>17.914000000000001</v>
       </c>
       <c r="AA22">
-        <v>49.481999999999999</v>
+        <v>13.452</v>
       </c>
     </row>
     <row r="23" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A23" s="1">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="B23" t="s">
         <v>48</v>
       </c>
       <c r="C23">
-        <v>12.276</v>
+        <v>31.198</v>
       </c>
       <c r="D23">
-        <v>471.197</v>
+        <v>308.33800000000002</v>
       </c>
       <c r="E23">
-        <v>381.1</v>
+        <v>259.23099999999999</v>
       </c>
       <c r="F23">
-        <v>264.029</v>
+        <v>175.52799999999999</v>
       </c>
       <c r="G23">
-        <v>1775.2639999999999</v>
+        <v>991.649</v>
       </c>
       <c r="H23">
-        <v>3753.413</v>
+        <v>1414.7850000000001</v>
       </c>
       <c r="I23">
-        <v>241.249</v>
+        <v>66.643000000000001</v>
       </c>
       <c r="J23">
-        <v>422</v>
+        <v>425.971</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>3.7850000000000001</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>-7.6999999999999999E-2</v>
+        <v>-0.11700000000000001</v>
       </c>
       <c r="N23">
-        <v>400.88799999999998</v>
+        <v>259.13200000000001</v>
       </c>
       <c r="O23">
-        <v>1208.9639999999999</v>
+        <v>712.13</v>
       </c>
       <c r="P23">
-        <v>434.27600000000001</v>
+        <v>429.75599999999997</v>
       </c>
       <c r="Q23">
-        <v>-53.933999999999997</v>
+        <v>-31.129000000000001</v>
       </c>
       <c r="R23">
-        <v>42460</v>
+        <v>38807</v>
       </c>
       <c r="S23">
         <v>0</v>
       </c>
       <c r="T23">
-        <v>2544.4490000000001</v>
+        <v>702.65499999999997</v>
       </c>
       <c r="U23">
-        <v>403.61500000000001</v>
+        <v>265.58699999999999</v>
       </c>
       <c r="V23">
-        <v>-7.4480000000000004</v>
+        <v>-42.070999999999998</v>
       </c>
       <c r="W23">
         <v>0</v>
       </c>
       <c r="X23">
-        <v>0.25800000000000001</v>
+        <v>2.6960000000000002</v>
       </c>
       <c r="Y23">
-        <v>11.98</v>
+        <v>0</v>
       </c>
       <c r="Z23">
-        <v>-15.929</v>
+        <v>-15.632</v>
       </c>
       <c r="AA23">
-        <v>12.276</v>
+        <v>31.198</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A24" s="1">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="B24" t="s">
         <v>49</v>
       </c>
       <c r="C24">
-        <v>18.013999999999999</v>
+        <v>32.265999999999998</v>
       </c>
       <c r="D24">
-        <v>516.77700000000004</v>
+        <v>317.74700000000001</v>
       </c>
       <c r="E24">
-        <v>366.28100000000001</v>
+        <v>273.01400000000001</v>
       </c>
       <c r="F24">
-        <v>281.93200000000002</v>
+        <v>184.66200000000001</v>
       </c>
       <c r="G24">
-        <v>1805.6880000000001</v>
+        <v>1058.173</v>
       </c>
       <c r="H24">
-        <v>3874.6350000000002</v>
+        <v>1494.0360000000001</v>
       </c>
       <c r="I24">
-        <v>256.11200000000002</v>
+        <v>69.302000000000007</v>
       </c>
       <c r="J24">
-        <v>422.2</v>
+        <v>425.87299999999999</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>4.4779999999999998</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -2598,81 +2718,81 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>410.40499999999997</v>
+        <v>281.02100000000002</v>
       </c>
       <c r="O24">
-        <v>1260.0740000000001</v>
+        <v>737.92200000000003</v>
       </c>
       <c r="P24">
-        <v>434.351</v>
+        <v>430.351</v>
       </c>
       <c r="Q24">
-        <v>15.036</v>
+        <v>-19.940999999999999</v>
       </c>
       <c r="R24">
-        <v>42551</v>
+        <v>38898</v>
       </c>
       <c r="S24">
         <v>0</v>
       </c>
       <c r="T24">
-        <v>2614.5610000000001</v>
+        <v>756.11400000000003</v>
       </c>
       <c r="U24">
-        <v>418.65100000000001</v>
+        <v>245.64599999999999</v>
       </c>
       <c r="V24">
-        <v>77.155000000000001</v>
+        <v>53.563000000000002</v>
       </c>
       <c r="W24">
         <v>0</v>
       </c>
       <c r="X24">
-        <v>3.036</v>
+        <v>3.839</v>
       </c>
       <c r="Y24">
-        <v>11.856999999999999</v>
+        <v>0</v>
       </c>
       <c r="Z24">
-        <v>-26.071999999999999</v>
+        <v>-60.308</v>
       </c>
       <c r="AA24">
-        <v>18.013999999999999</v>
+        <v>32.265999999999998</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A25" s="1">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="B25" t="s">
         <v>50</v>
       </c>
       <c r="C25">
-        <v>18.405000000000001</v>
+        <v>23.15</v>
       </c>
       <c r="D25">
-        <v>508.745</v>
+        <v>304.76400000000001</v>
       </c>
       <c r="E25">
-        <v>367.66199999999998</v>
+        <v>273.36700000000002</v>
       </c>
       <c r="F25">
-        <v>279.46899999999999</v>
+        <v>166.78899999999999</v>
       </c>
       <c r="G25">
-        <v>1850.1030000000001</v>
+        <v>1092.713</v>
       </c>
       <c r="H25">
-        <v>4019.7260000000001</v>
+        <v>1523.635</v>
       </c>
       <c r="I25">
-        <v>280.45299999999997</v>
+        <v>64.513000000000005</v>
       </c>
       <c r="J25">
-        <v>422.3</v>
+        <v>425.75</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>3.7679999999999998</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -2681,81 +2801,81 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>442.71800000000002</v>
+        <v>281.31200000000001</v>
       </c>
       <c r="O25">
-        <v>1317.0350000000001</v>
+        <v>738.89499999999998</v>
       </c>
       <c r="P25">
-        <v>434.43400000000003</v>
+        <v>429.51799999999997</v>
       </c>
       <c r="Q25">
-        <v>-0.71199999999999997</v>
+        <v>-7.2279999999999998</v>
       </c>
       <c r="R25">
-        <v>42643</v>
+        <v>38990</v>
       </c>
       <c r="S25">
         <v>0</v>
       </c>
       <c r="T25">
-        <v>2702.6909999999998</v>
+        <v>784.74</v>
       </c>
       <c r="U25">
-        <v>417.93900000000002</v>
+        <v>238.41800000000001</v>
       </c>
       <c r="V25">
-        <v>51.606999999999999</v>
+        <v>51.874000000000002</v>
       </c>
       <c r="W25">
         <v>0</v>
       </c>
       <c r="X25">
-        <v>2.8969999999999998</v>
+        <v>3.0270000000000001</v>
       </c>
       <c r="Y25">
-        <v>11.837</v>
+        <v>0</v>
       </c>
       <c r="Z25">
-        <v>-14.02</v>
+        <v>-55.86</v>
       </c>
       <c r="AA25">
-        <v>18.405000000000001</v>
+        <v>23.15</v>
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A26" s="1">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="B26" t="s">
         <v>51</v>
       </c>
       <c r="C26">
-        <v>-22.695</v>
+        <v>16.649000000000001</v>
       </c>
       <c r="D26">
-        <v>571.45299999999997</v>
+        <v>343.08100000000002</v>
       </c>
       <c r="E26">
-        <v>372.34800000000001</v>
+        <v>292.97000000000003</v>
       </c>
       <c r="F26">
-        <v>314.45699999999999</v>
+        <v>185.55699999999999</v>
       </c>
       <c r="G26">
-        <v>1844.5239999999999</v>
+        <v>1129.777</v>
       </c>
       <c r="H26">
-        <v>3850.5039999999999</v>
+        <v>1596.1679999999999</v>
       </c>
       <c r="I26">
-        <v>133.10900000000001</v>
+        <v>83.411000000000001</v>
       </c>
       <c r="J26">
-        <v>422.5</v>
+        <v>425.625</v>
       </c>
       <c r="K26">
-        <v>0</v>
+        <v>2.5390000000000001</v>
       </c>
       <c r="L26">
         <v>0</v>
@@ -2764,164 +2884,164 @@
         <v>0</v>
       </c>
       <c r="N26">
-        <v>471.322</v>
+        <v>319.53300000000002</v>
       </c>
       <c r="O26">
-        <v>1271.3440000000001</v>
+        <v>776.63</v>
       </c>
       <c r="P26">
-        <v>434.52</v>
+        <v>428.66699999999997</v>
       </c>
       <c r="Q26">
-        <v>38.325000000000003</v>
+        <v>-14.811</v>
       </c>
       <c r="R26">
-        <v>42735</v>
+        <v>39082</v>
       </c>
       <c r="S26">
-        <v>8250</v>
+        <v>5400</v>
       </c>
       <c r="T26">
-        <v>2579.16</v>
+        <v>819.53800000000001</v>
       </c>
       <c r="U26">
-        <v>456.26400000000001</v>
+        <v>223.607</v>
       </c>
       <c r="V26">
-        <v>95.119</v>
+        <v>54.863</v>
       </c>
       <c r="W26">
         <v>0</v>
       </c>
       <c r="X26">
-        <v>2.8290000000000002</v>
+        <v>0.6</v>
       </c>
       <c r="Y26">
-        <v>11.686</v>
+        <v>0</v>
       </c>
       <c r="Z26">
-        <v>-2.1709999999999998</v>
+        <v>-23.603999999999999</v>
       </c>
       <c r="AA26">
-        <v>-22.695</v>
+        <v>16.649000000000001</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A27" s="1">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="B27" t="s">
         <v>52</v>
       </c>
       <c r="C27">
-        <v>12.413</v>
+        <v>26.997</v>
       </c>
       <c r="D27">
-        <v>500.05099999999999</v>
+        <v>322.50799999999998</v>
       </c>
       <c r="E27">
-        <v>373.44299999999998</v>
+        <v>290.11599999999999</v>
       </c>
       <c r="F27">
-        <v>280.06299999999999</v>
+        <v>179.381</v>
       </c>
       <c r="G27">
-        <v>1732.5709999999999</v>
+        <v>1129.692</v>
       </c>
       <c r="H27">
-        <v>3952.7689999999998</v>
+        <v>1607.0429999999999</v>
       </c>
       <c r="I27">
-        <v>231.48500000000001</v>
+        <v>61.945999999999998</v>
       </c>
       <c r="J27">
-        <v>422.6</v>
+        <v>425.50400000000002</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>4.609</v>
       </c>
       <c r="L27">
         <v>0</v>
       </c>
       <c r="M27">
-        <v>-0.112</v>
+        <v>-0.123</v>
       </c>
       <c r="N27">
-        <v>407.50400000000002</v>
+        <v>272.09100000000001</v>
       </c>
       <c r="O27">
-        <v>1245.3030000000001</v>
+        <v>746.37900000000002</v>
       </c>
       <c r="P27">
-        <v>434.755</v>
+        <v>430.113</v>
       </c>
       <c r="Q27">
-        <v>-164.584</v>
+        <v>6.7069999999999999</v>
       </c>
       <c r="R27">
-        <v>42825</v>
+        <v>39172</v>
       </c>
       <c r="S27">
         <v>0</v>
       </c>
       <c r="T27">
-        <v>2707.4659999999999</v>
+        <v>860.66399999999999</v>
       </c>
       <c r="U27">
-        <v>291.66300000000001</v>
+        <v>230.31399999999999</v>
       </c>
       <c r="V27">
-        <v>-56.203000000000003</v>
+        <v>-12.641</v>
       </c>
       <c r="W27">
         <v>0</v>
       </c>
       <c r="X27">
-        <v>0.67300000000000004</v>
+        <v>7.2649999999999997</v>
       </c>
       <c r="Y27">
-        <v>11.689</v>
+        <v>0</v>
       </c>
       <c r="Z27">
-        <v>2.4660000000000002</v>
+        <v>23.731999999999999</v>
       </c>
       <c r="AA27">
-        <v>12.413</v>
+        <v>26.997</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A28" s="1">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="B28" t="s">
         <v>53</v>
       </c>
       <c r="C28">
-        <v>5.0350000000000001</v>
+        <v>25.670999999999999</v>
       </c>
       <c r="D28">
-        <v>504.666</v>
+        <v>339.11399999999998</v>
       </c>
       <c r="E28">
-        <v>392.84199999999998</v>
+        <v>303.26600000000002</v>
       </c>
       <c r="F28">
-        <v>273.375</v>
+        <v>189.99100000000001</v>
       </c>
       <c r="G28">
-        <v>1826.528</v>
+        <v>1167.739</v>
       </c>
       <c r="H28">
-        <v>4143.4589999999998</v>
+        <v>1654.7429999999999</v>
       </c>
       <c r="I28">
-        <v>277.56599999999997</v>
+        <v>67.228999999999999</v>
       </c>
       <c r="J28">
-        <v>422.8</v>
+        <v>426.16500000000002</v>
       </c>
       <c r="K28">
-        <v>0</v>
+        <v>4.6040000000000001</v>
       </c>
       <c r="L28">
         <v>0</v>
@@ -2930,81 +3050,81 @@
         <v>0</v>
       </c>
       <c r="N28">
-        <v>455.11</v>
+        <v>281.84899999999999</v>
       </c>
       <c r="O28">
-        <v>1332.462</v>
+        <v>757.94399999999996</v>
       </c>
       <c r="P28">
-        <v>434.89100000000002</v>
+        <v>430.76900000000001</v>
       </c>
       <c r="Q28">
-        <v>30.001000000000001</v>
+        <v>2.089</v>
       </c>
       <c r="R28">
-        <v>42916</v>
+        <v>39263</v>
       </c>
       <c r="S28">
         <v>0</v>
       </c>
       <c r="T28">
-        <v>2810.9969999999998</v>
+        <v>896.79899999999998</v>
       </c>
       <c r="U28">
-        <v>321.584</v>
+        <v>232.40299999999999</v>
       </c>
       <c r="V28">
-        <v>62.5</v>
+        <v>46.072000000000003</v>
       </c>
       <c r="W28">
         <v>0</v>
       </c>
       <c r="X28">
-        <v>-1.0680000000000001</v>
+        <v>2.09</v>
       </c>
       <c r="Y28">
-        <v>11.586</v>
+        <v>0</v>
       </c>
       <c r="Z28">
-        <v>-7.718</v>
+        <v>-29.085000000000001</v>
       </c>
       <c r="AA28">
-        <v>5.0350000000000001</v>
+        <v>25.670999999999999</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A29" s="1">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="B29" t="s">
         <v>54</v>
       </c>
       <c r="C29">
-        <v>22.067</v>
+        <v>27.971</v>
       </c>
       <c r="D29">
-        <v>534.14099999999996</v>
+        <v>339.74200000000002</v>
       </c>
       <c r="E29">
-        <v>419.70800000000003</v>
+        <v>303.20100000000002</v>
       </c>
       <c r="F29">
-        <v>299.00799999999998</v>
+        <v>188.357</v>
       </c>
       <c r="G29">
-        <v>1892.451</v>
+        <v>1219.5619999999999</v>
       </c>
       <c r="H29">
-        <v>4185.7280000000001</v>
+        <v>1712.4839999999999</v>
       </c>
       <c r="I29">
-        <v>273.95800000000003</v>
+        <v>68.102000000000004</v>
       </c>
       <c r="J29">
-        <v>422.9</v>
+        <v>426.14100000000002</v>
       </c>
       <c r="K29">
-        <v>0</v>
+        <v>4.3070000000000004</v>
       </c>
       <c r="L29">
         <v>0</v>
@@ -3013,81 +3133,81 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>466.45600000000002</v>
+        <v>286.46100000000001</v>
       </c>
       <c r="O29">
-        <v>1337.2809999999999</v>
+        <v>766.14400000000001</v>
       </c>
       <c r="P29">
-        <v>434.92700000000002</v>
+        <v>431.048</v>
       </c>
       <c r="Q29">
-        <v>7.4539999999999997</v>
+        <v>240.38900000000001</v>
       </c>
       <c r="R29">
-        <v>43008</v>
+        <v>39355</v>
       </c>
       <c r="S29">
         <v>0</v>
       </c>
       <c r="T29">
-        <v>2848.4470000000001</v>
+        <v>946.34</v>
       </c>
       <c r="U29">
-        <v>328.89400000000001</v>
+        <v>472.79199999999997</v>
       </c>
       <c r="V29">
-        <v>28.475000000000001</v>
+        <v>54.997999999999998</v>
       </c>
       <c r="W29">
         <v>0</v>
       </c>
       <c r="X29">
-        <v>-2.84</v>
+        <v>3.2349999999999999</v>
       </c>
       <c r="Y29">
-        <v>11.574999999999999</v>
+        <v>0</v>
       </c>
       <c r="Z29">
-        <v>6.6289999999999996</v>
+        <v>198.047</v>
       </c>
       <c r="AA29">
-        <v>22.067</v>
+        <v>27.971</v>
       </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A30" s="1">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="B30" t="s">
         <v>55</v>
       </c>
       <c r="C30">
-        <v>82.733999999999995</v>
+        <v>12.355</v>
       </c>
       <c r="D30">
-        <v>621.29499999999996</v>
+        <v>459.68799999999999</v>
       </c>
       <c r="E30">
-        <v>464.84699999999998</v>
+        <v>358.07600000000002</v>
       </c>
       <c r="F30">
-        <v>336.95699999999999</v>
+        <v>233.63300000000001</v>
       </c>
       <c r="G30">
-        <v>1976.6489999999999</v>
+        <v>1028.9739999999999</v>
       </c>
       <c r="H30">
-        <v>4273.0119999999997</v>
+        <v>1971.5940000000001</v>
       </c>
       <c r="I30">
-        <v>135.18199999999999</v>
+        <v>96.47</v>
       </c>
       <c r="J30">
-        <v>423.1</v>
+        <v>441.80500000000001</v>
       </c>
       <c r="K30">
-        <v>0</v>
+        <v>4.63</v>
       </c>
       <c r="L30">
         <v>0</v>
@@ -3096,164 +3216,164 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>502.69600000000003</v>
+        <v>414.16800000000001</v>
       </c>
       <c r="O30">
-        <v>1342.7619999999999</v>
+        <v>965.47</v>
       </c>
       <c r="P30">
-        <v>435.00099999999998</v>
+        <v>457.43200000000002</v>
       </c>
       <c r="Q30">
-        <v>54.941000000000003</v>
+        <v>-311.02800000000002</v>
       </c>
       <c r="R30">
-        <v>43100</v>
+        <v>39447</v>
       </c>
       <c r="S30">
-        <v>8150</v>
+        <v>6400</v>
       </c>
       <c r="T30">
-        <v>2930.25</v>
+        <v>1006.124</v>
       </c>
       <c r="U30">
-        <v>383.82400000000001</v>
+        <v>161.76400000000001</v>
       </c>
       <c r="V30">
-        <v>69.364999999999995</v>
+        <v>103.151</v>
       </c>
       <c r="W30">
         <v>0</v>
       </c>
       <c r="X30">
-        <v>3.5760000000000001</v>
+        <v>-20.04</v>
       </c>
       <c r="Y30">
-        <v>11.481</v>
+        <v>0</v>
       </c>
       <c r="Z30">
-        <v>15.737</v>
+        <v>7.3319999999999999</v>
       </c>
       <c r="AA30">
-        <v>82.733999999999995</v>
+        <v>12.355</v>
       </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A31" s="1">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="B31" t="s">
         <v>56</v>
       </c>
       <c r="C31">
-        <v>656.774</v>
+        <v>26.495000000000001</v>
       </c>
       <c r="D31">
-        <v>551.51900000000001</v>
+        <v>422.197</v>
       </c>
       <c r="E31">
-        <v>430.36099999999999</v>
+        <v>366.50900000000001</v>
       </c>
       <c r="F31">
-        <v>302.20299999999997</v>
+        <v>226.88300000000001</v>
       </c>
       <c r="G31">
-        <v>1977.116</v>
+        <v>1049.0309999999999</v>
       </c>
       <c r="H31">
-        <v>6214.9120000000003</v>
+        <v>2053.288</v>
       </c>
       <c r="I31">
-        <v>244.065</v>
+        <v>98.929000000000002</v>
       </c>
       <c r="J31">
-        <v>434.678</v>
+        <v>442.44600000000003</v>
       </c>
       <c r="K31">
-        <v>0</v>
+        <v>4.077</v>
       </c>
       <c r="L31">
         <v>0</v>
       </c>
       <c r="M31">
-        <v>-8.6999999999999994E-2</v>
+        <v>-2.8580000000000001</v>
       </c>
       <c r="N31">
-        <v>456.19799999999998</v>
+        <v>387.44600000000003</v>
       </c>
       <c r="O31">
-        <v>1726.8209999999999</v>
+        <v>940.77200000000005</v>
       </c>
       <c r="P31">
-        <v>435.04700000000003</v>
+        <v>458.12299999999999</v>
       </c>
       <c r="Q31">
-        <v>22.661999999999999</v>
+        <v>-32.283999999999999</v>
       </c>
       <c r="R31">
-        <v>43190</v>
+        <v>39538</v>
       </c>
       <c r="S31">
         <v>0</v>
       </c>
       <c r="T31">
-        <v>4488.0910000000003</v>
+        <v>1112.5160000000001</v>
       </c>
       <c r="U31">
-        <v>407.27199999999999</v>
+        <v>129.47999999999999</v>
       </c>
       <c r="V31">
-        <v>40.345999999999997</v>
+        <v>-2.177</v>
       </c>
       <c r="W31">
         <v>0</v>
       </c>
       <c r="X31">
-        <v>2.5150000000000001</v>
+        <v>2.7890000000000001</v>
       </c>
       <c r="Y31">
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>1.4339999999999999</v>
+        <v>7.907</v>
       </c>
       <c r="AA31">
-        <v>656.774</v>
+        <v>26.495000000000001</v>
       </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A32" s="1">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="B32" t="s">
         <v>57</v>
       </c>
       <c r="C32">
-        <v>268.04300000000001</v>
+        <v>43.398000000000003</v>
       </c>
       <c r="D32">
-        <v>575.91099999999994</v>
+        <v>452.36099999999999</v>
       </c>
       <c r="E32">
-        <v>404.09100000000001</v>
+        <v>376.98500000000001</v>
       </c>
       <c r="F32">
-        <v>301.66699999999997</v>
+        <v>248.42099999999999</v>
       </c>
       <c r="G32">
-        <v>1992.3340000000001</v>
+        <v>1119.7819999999999</v>
       </c>
       <c r="H32">
-        <v>6386.223</v>
+        <v>2098.92</v>
       </c>
       <c r="I32">
-        <v>250.42099999999999</v>
+        <v>102.32</v>
       </c>
       <c r="J32">
-        <v>423.4</v>
+        <v>440.68700000000001</v>
       </c>
       <c r="K32">
-        <v>0</v>
+        <v>4.18</v>
       </c>
       <c r="L32">
         <v>0</v>
@@ -3262,81 +3382,81 @@
         <v>0</v>
       </c>
       <c r="N32">
-        <v>442.42099999999999</v>
+        <v>408.08699999999999</v>
       </c>
       <c r="O32">
-        <v>1747.277</v>
+        <v>952.18700000000001</v>
       </c>
       <c r="P32">
-        <v>440.49700000000001</v>
+        <v>455.36700000000002</v>
       </c>
       <c r="Q32">
-        <v>-3.56</v>
+        <v>54.162999999999997</v>
       </c>
       <c r="R32">
-        <v>43281</v>
+        <v>39629</v>
       </c>
       <c r="S32">
         <v>0</v>
       </c>
       <c r="T32">
-        <v>4638.9459999999999</v>
+        <v>1146.7329999999999</v>
       </c>
       <c r="U32">
-        <v>403.00599999999997</v>
+        <v>183.643</v>
       </c>
       <c r="V32">
-        <v>77.861999999999995</v>
+        <v>69.087999999999994</v>
       </c>
       <c r="W32">
         <v>0</v>
       </c>
       <c r="X32">
-        <v>-2.016</v>
+        <v>0.88700000000000001</v>
       </c>
       <c r="Y32">
-        <v>15.375999999999999</v>
+        <v>0</v>
       </c>
       <c r="Z32">
-        <v>-61.476999999999997</v>
+        <v>2.5659999999999998</v>
       </c>
       <c r="AA32">
-        <v>268.04300000000001</v>
+        <v>43.398000000000003</v>
       </c>
     </row>
     <row r="33" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A33" s="1">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="B33" t="s">
         <v>58</v>
       </c>
       <c r="C33">
-        <v>269.32600000000002</v>
+        <v>27.832999999999998</v>
       </c>
       <c r="D33">
-        <v>545.13800000000003</v>
+        <v>441.84199999999998</v>
       </c>
       <c r="E33">
-        <v>381.52600000000001</v>
+        <v>348.25299999999999</v>
       </c>
       <c r="F33">
-        <v>286.71600000000001</v>
+        <v>240.542</v>
       </c>
       <c r="G33">
-        <v>2034.1969999999999</v>
+        <v>1083.4459999999999</v>
       </c>
       <c r="H33">
-        <v>6718.6620000000003</v>
+        <v>2014.9449999999999</v>
       </c>
       <c r="I33">
-        <v>247.828</v>
+        <v>100.626</v>
       </c>
       <c r="J33">
-        <v>423.6</v>
+        <v>446.37799999999999</v>
       </c>
       <c r="K33">
-        <v>0</v>
+        <v>4.2859999999999996</v>
       </c>
       <c r="L33">
         <v>0</v>
@@ -3345,81 +3465,81 @@
         <v>0</v>
       </c>
       <c r="N33">
-        <v>453.15899999999999</v>
+        <v>385.81400000000002</v>
       </c>
       <c r="O33">
-        <v>1818.181</v>
+        <v>929.12599999999998</v>
       </c>
       <c r="P33">
-        <v>440.57499999999999</v>
+        <v>458.26400000000001</v>
       </c>
       <c r="Q33">
-        <v>31.504000000000001</v>
+        <v>9.984</v>
       </c>
       <c r="R33">
-        <v>43373</v>
+        <v>39721</v>
       </c>
       <c r="S33">
         <v>0</v>
       </c>
       <c r="T33">
-        <v>4900.4809999999998</v>
+        <v>1085.819</v>
       </c>
       <c r="U33">
-        <v>434.517</v>
+        <v>193.62700000000001</v>
       </c>
       <c r="V33">
-        <v>62.277000000000001</v>
+        <v>46.119</v>
       </c>
       <c r="W33">
         <v>0</v>
       </c>
       <c r="X33">
-        <v>-2.1760000000000002</v>
+        <v>0.73299999999999998</v>
       </c>
       <c r="Y33">
-        <v>15.202999999999999</v>
+        <v>0</v>
       </c>
       <c r="Z33">
-        <v>-7.673</v>
+        <v>-7.593</v>
       </c>
       <c r="AA33">
-        <v>269.32600000000002</v>
+        <v>27.832999999999998</v>
       </c>
     </row>
     <row r="34" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A34" s="1">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="B34" t="s">
         <v>59</v>
       </c>
       <c r="C34">
-        <v>-828.529</v>
+        <v>-8.2159999999999993</v>
       </c>
       <c r="D34">
-        <v>616.84699999999998</v>
+        <v>447.96499999999997</v>
       </c>
       <c r="E34">
-        <v>392.44299999999998</v>
+        <v>339.65300000000002</v>
       </c>
       <c r="F34">
-        <v>337.86500000000001</v>
+        <v>246.67599999999999</v>
       </c>
       <c r="G34">
-        <v>2023.4780000000001</v>
+        <v>1093.941</v>
       </c>
       <c r="H34">
-        <v>5611.0680000000002</v>
+        <v>2037.2639999999999</v>
       </c>
       <c r="I34">
-        <v>122.45</v>
+        <v>117.982</v>
       </c>
       <c r="J34">
-        <v>423.7</v>
+        <v>445.97899999999998</v>
       </c>
       <c r="K34">
-        <v>0</v>
+        <v>2.3780000000000001</v>
       </c>
       <c r="L34">
         <v>0</v>
@@ -3428,164 +3548,164 @@
         <v>0</v>
       </c>
       <c r="N34">
-        <v>450.79500000000002</v>
+        <v>418.03399999999999</v>
       </c>
       <c r="O34">
-        <v>1590.7370000000001</v>
+        <v>966.62400000000002</v>
       </c>
       <c r="P34">
-        <v>439.43</v>
+        <v>455.55700000000002</v>
       </c>
       <c r="Q34">
-        <v>-1.425</v>
+        <v>10.897</v>
       </c>
       <c r="R34">
-        <v>43465</v>
+        <v>39813</v>
       </c>
       <c r="S34">
-        <v>8260</v>
+        <v>6600</v>
       </c>
       <c r="T34">
-        <v>4020.3310000000001</v>
+        <v>1070.6400000000001</v>
       </c>
       <c r="U34">
-        <v>431.52600000000001</v>
+        <v>204.524</v>
       </c>
       <c r="V34">
-        <v>105.009</v>
+        <v>78.340999999999994</v>
       </c>
       <c r="W34">
         <v>0</v>
       </c>
       <c r="X34">
-        <v>-47.003</v>
+        <v>1.9219999999999999</v>
       </c>
       <c r="Y34">
-        <v>15.237</v>
+        <v>0</v>
       </c>
       <c r="Z34">
-        <v>-0.97899999999999998</v>
+        <v>-1.774</v>
       </c>
       <c r="AA34">
-        <v>-828.529</v>
+        <v>-8.2159999999999993</v>
       </c>
     </row>
     <row r="35" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A35" s="1">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="B35" t="s">
         <v>60</v>
       </c>
       <c r="C35">
-        <v>865.19500000000005</v>
+        <v>30.265000000000001</v>
       </c>
       <c r="D35">
-        <v>553.97900000000004</v>
+        <v>400.93299999999999</v>
       </c>
       <c r="E35">
-        <v>391.69900000000001</v>
+        <v>326.30700000000002</v>
       </c>
       <c r="F35">
-        <v>311.762</v>
+        <v>228.90199999999999</v>
       </c>
       <c r="G35">
-        <v>2031.643</v>
+        <v>1049.922</v>
       </c>
       <c r="H35">
-        <v>6862.9139999999998</v>
+        <v>1955.308</v>
       </c>
       <c r="I35">
-        <v>234.41800000000001</v>
+        <v>95.951999999999998</v>
       </c>
       <c r="J35">
-        <v>426.20600000000002</v>
+        <v>444.209</v>
       </c>
       <c r="K35">
-        <v>0</v>
+        <v>0.253</v>
       </c>
       <c r="L35">
         <v>0</v>
       </c>
       <c r="M35">
-        <v>-0.23699999999999999</v>
+        <v>-3.9660000000000002</v>
       </c>
       <c r="N35">
-        <v>444.30599999999998</v>
+        <v>355.87900000000002</v>
       </c>
       <c r="O35">
-        <v>1999.059</v>
+        <v>897.00900000000001</v>
       </c>
       <c r="P35">
-        <v>666.33399999999995</v>
+        <v>450.46199999999999</v>
       </c>
       <c r="Q35">
-        <v>24.373000000000001</v>
+        <v>-11.654</v>
       </c>
       <c r="R35">
-        <v>43555</v>
+        <v>39903</v>
       </c>
       <c r="S35">
         <v>0</v>
       </c>
       <c r="T35">
-        <v>4863.8549999999996</v>
+        <v>1058.299</v>
       </c>
       <c r="U35">
-        <v>455.89</v>
+        <v>192.87</v>
       </c>
       <c r="V35">
-        <v>42.942999999999998</v>
+        <v>6.3710000000000004</v>
       </c>
       <c r="W35">
         <v>0</v>
       </c>
       <c r="X35">
-        <v>2.161</v>
+        <v>-2.0430000000000001</v>
       </c>
       <c r="Y35">
-        <v>203.958</v>
+        <v>0</v>
       </c>
       <c r="Z35">
-        <v>9.5220000000000002</v>
+        <v>0.83099999999999996</v>
       </c>
       <c r="AA35">
-        <v>865.19500000000005</v>
+        <v>30.265000000000001</v>
       </c>
     </row>
     <row r="36" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A36" s="1">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="B36" t="s">
         <v>61</v>
       </c>
       <c r="C36">
-        <v>598.80999999999995</v>
+        <v>37.969000000000001</v>
       </c>
       <c r="D36">
-        <v>572.61900000000003</v>
+        <v>427.18299999999999</v>
       </c>
       <c r="E36">
-        <v>377.904</v>
+        <v>335.82799999999997</v>
       </c>
       <c r="F36">
-        <v>307.76900000000001</v>
+        <v>241.96199999999999</v>
       </c>
       <c r="G36">
-        <v>2087.94</v>
+        <v>1397.835</v>
       </c>
       <c r="H36">
-        <v>7646.9449999999997</v>
+        <v>2344.4569999999999</v>
       </c>
       <c r="I36">
-        <v>243.10900000000001</v>
+        <v>90.85</v>
       </c>
       <c r="J36">
-        <v>426.38</v>
+        <v>738.45399999999995</v>
       </c>
       <c r="K36">
-        <v>0</v>
+        <v>0.27400000000000002</v>
       </c>
       <c r="L36">
         <v>0</v>
@@ -3594,81 +3714,81 @@
         <v>0</v>
       </c>
       <c r="N36">
-        <v>445.97699999999998</v>
+        <v>383.60899999999998</v>
       </c>
       <c r="O36">
-        <v>2160.1350000000002</v>
+        <v>1216.816</v>
       </c>
       <c r="P36">
-        <v>661.07100000000003</v>
+        <v>744.32799999999997</v>
       </c>
       <c r="Q36">
-        <v>124.831</v>
+        <v>340.60399999999998</v>
       </c>
       <c r="R36">
-        <v>43646</v>
+        <v>39994</v>
       </c>
       <c r="S36">
         <v>0</v>
       </c>
       <c r="T36">
-        <v>5486.81</v>
+        <v>1127.6410000000001</v>
       </c>
       <c r="U36">
-        <v>580.68399999999997</v>
+        <v>533.47400000000005</v>
       </c>
       <c r="V36">
-        <v>155.40199999999999</v>
+        <v>105.492</v>
       </c>
       <c r="W36">
         <v>0</v>
       </c>
       <c r="X36">
-        <v>-15.645</v>
+        <v>293.14800000000002</v>
       </c>
       <c r="Y36">
-        <v>198.99100000000001</v>
+        <v>0</v>
       </c>
       <c r="Z36">
-        <v>7.1509999999999998</v>
+        <v>0.85399999999999998</v>
       </c>
       <c r="AA36">
-        <v>598.80999999999995</v>
+        <v>37.969000000000001</v>
       </c>
     </row>
     <row r="37" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A37" s="1">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="B37" t="s">
         <v>62</v>
       </c>
       <c r="C37">
-        <v>-258.81599999999997</v>
+        <v>38.524000000000001</v>
       </c>
       <c r="D37">
-        <v>560.63300000000004</v>
+        <v>461.05500000000001</v>
       </c>
       <c r="E37">
-        <v>356.02499999999998</v>
+        <v>350.762</v>
       </c>
       <c r="F37">
-        <v>307.02600000000001</v>
+        <v>260.51</v>
       </c>
       <c r="G37">
-        <v>2047.6320000000001</v>
+        <v>1503.4010000000001</v>
       </c>
       <c r="H37">
-        <v>7177.116</v>
+        <v>2478.2060000000001</v>
       </c>
       <c r="I37">
-        <v>247.73500000000001</v>
+        <v>92.381</v>
       </c>
       <c r="J37">
-        <v>426.608</v>
+        <v>738.68700000000001</v>
       </c>
       <c r="K37">
-        <v>0</v>
+        <v>4.5999999999999999E-2</v>
       </c>
       <c r="L37">
         <v>0</v>
@@ -3677,81 +3797,81 @@
         <v>0</v>
       </c>
       <c r="N37">
-        <v>434.04</v>
+        <v>415.69499999999999</v>
       </c>
       <c r="O37">
-        <v>2045.924</v>
+        <v>1250.5350000000001</v>
       </c>
       <c r="P37">
-        <v>665.87099999999998</v>
+        <v>744.03300000000002</v>
       </c>
       <c r="Q37">
-        <v>-20.015999999999998</v>
+        <v>20.704999999999998</v>
       </c>
       <c r="R37">
-        <v>43738</v>
+        <v>40086</v>
       </c>
       <c r="S37">
         <v>0</v>
       </c>
       <c r="T37">
-        <v>5131.192</v>
+        <v>1227.671</v>
       </c>
       <c r="U37">
-        <v>561.07100000000003</v>
+        <v>554.17899999999997</v>
       </c>
       <c r="V37">
-        <v>99.75</v>
+        <v>97.489000000000004</v>
       </c>
       <c r="W37">
         <v>0</v>
       </c>
       <c r="X37">
-        <v>-4.4909999999999997</v>
+        <v>1.1579999999999999</v>
       </c>
       <c r="Y37">
-        <v>203.8</v>
+        <v>0</v>
       </c>
       <c r="Z37">
-        <v>-19.088999999999999</v>
+        <v>-56.536999999999999</v>
       </c>
       <c r="AA37">
-        <v>-258.81599999999997</v>
+        <v>38.524000000000001</v>
       </c>
     </row>
     <row r="38" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A38" s="1">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="B38" t="s">
         <v>63</v>
       </c>
       <c r="C38">
-        <v>553.48599999999999</v>
+        <v>37.862000000000002</v>
       </c>
       <c r="D38">
-        <v>624.428</v>
+        <v>495.07299999999998</v>
       </c>
       <c r="E38">
-        <v>392.67200000000003</v>
+        <v>345.73399999999998</v>
       </c>
       <c r="F38">
-        <v>342.53899999999999</v>
+        <v>268.46899999999999</v>
       </c>
       <c r="G38">
-        <v>2180.1550000000002</v>
+        <v>1562.674</v>
       </c>
       <c r="H38">
-        <v>8008.8590000000004</v>
+        <v>2535.8530000000001</v>
       </c>
       <c r="I38">
-        <v>107.014</v>
+        <v>92.988</v>
       </c>
       <c r="J38">
-        <v>2.379</v>
+        <v>737.91899999999998</v>
       </c>
       <c r="K38">
-        <v>0</v>
+        <v>0.432</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -3760,164 +3880,164 @@
         <v>0</v>
       </c>
       <c r="N38">
-        <v>905.495</v>
+        <v>419.97199999999998</v>
       </c>
       <c r="O38">
-        <v>2253.8020000000001</v>
+        <v>1256.6400000000001</v>
       </c>
       <c r="P38">
-        <v>651.13400000000001</v>
+        <v>743.05100000000004</v>
       </c>
       <c r="Q38">
-        <v>99.299000000000007</v>
+        <v>95.759</v>
       </c>
       <c r="R38">
-        <v>43830</v>
+        <v>40178</v>
       </c>
       <c r="S38">
-        <v>8120</v>
+        <v>6600</v>
       </c>
       <c r="T38">
-        <v>5755.0569999999998</v>
+        <v>1279.213</v>
       </c>
       <c r="U38">
-        <v>660.67200000000003</v>
+        <v>649.93799999999999</v>
       </c>
       <c r="V38">
-        <v>159.80199999999999</v>
+        <v>115.72199999999999</v>
       </c>
       <c r="W38">
         <v>0</v>
       </c>
       <c r="X38">
-        <v>-4.7830000000000004</v>
+        <v>1.67</v>
       </c>
       <c r="Y38">
-        <v>187.21799999999999</v>
+        <v>0</v>
       </c>
       <c r="Z38">
-        <v>-37.502000000000002</v>
+        <v>-6.2290000000000001</v>
       </c>
       <c r="AA38">
-        <v>553.48599999999999</v>
+        <v>37.862000000000002</v>
       </c>
     </row>
     <row r="39" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A39" s="1">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="B39" t="s">
         <v>64</v>
       </c>
       <c r="C39">
-        <v>685.91200000000003</v>
+        <v>34.860999999999997</v>
       </c>
       <c r="D39">
-        <v>571.64400000000001</v>
+        <v>454.23399999999998</v>
       </c>
       <c r="E39">
-        <v>380.476</v>
+        <v>344.98899999999998</v>
       </c>
       <c r="F39">
-        <v>315.86799999999999</v>
+        <v>257.12700000000001</v>
       </c>
       <c r="G39">
-        <v>2082.587</v>
+        <v>1543.287</v>
       </c>
       <c r="H39">
-        <v>8684.3590000000004</v>
+        <v>2546.8719999999998</v>
       </c>
       <c r="I39">
-        <v>118.221</v>
+        <v>99.16</v>
       </c>
       <c r="J39">
-        <v>1.2050000000000001</v>
+        <v>738.66200000000003</v>
       </c>
       <c r="K39">
-        <v>0</v>
+        <v>0.70399999999999996</v>
       </c>
       <c r="L39">
         <v>0</v>
       </c>
       <c r="M39">
-        <v>-1.415</v>
+        <v>-1.8859999999999999</v>
       </c>
       <c r="N39">
-        <v>869.25400000000002</v>
+        <v>398.17</v>
       </c>
       <c r="O39">
-        <v>2391.2800000000002</v>
+        <v>1245.9490000000001</v>
       </c>
       <c r="P39">
-        <v>648.40499999999997</v>
+        <v>743.76599999999996</v>
       </c>
       <c r="Q39">
-        <v>-54.207999999999998</v>
+        <v>-51.804000000000002</v>
       </c>
       <c r="R39">
-        <v>43921</v>
+        <v>40268</v>
       </c>
       <c r="S39">
         <v>0</v>
       </c>
       <c r="T39">
-        <v>6293.0789999999997</v>
+        <v>1300.923</v>
       </c>
       <c r="U39">
-        <v>603.55100000000004</v>
+        <v>598.13400000000001</v>
       </c>
       <c r="V39">
-        <v>62.808</v>
+        <v>22.268999999999998</v>
       </c>
       <c r="W39">
         <v>0</v>
       </c>
       <c r="X39">
-        <v>-98.617000000000004</v>
+        <v>1.0329999999999999</v>
       </c>
       <c r="Y39">
-        <v>186.452</v>
+        <v>0</v>
       </c>
       <c r="Z39">
-        <v>9.2309999999999999</v>
+        <v>2.6819999999999999</v>
       </c>
       <c r="AA39">
-        <v>685.91200000000003</v>
+        <v>34.860999999999997</v>
       </c>
     </row>
     <row r="40" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A40" s="1">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="B40" t="s">
         <v>65</v>
       </c>
       <c r="C40">
-        <v>966.42899999999997</v>
+        <v>37.957000000000001</v>
       </c>
       <c r="D40">
-        <v>536.88</v>
+        <v>467.66199999999998</v>
       </c>
       <c r="E40">
-        <v>360.85399999999998</v>
+        <v>335.35399999999998</v>
       </c>
       <c r="F40">
-        <v>292.988</v>
+        <v>268.30799999999999</v>
       </c>
       <c r="G40">
-        <v>2132.5839999999998</v>
+        <v>1555.827</v>
       </c>
       <c r="H40">
-        <v>10097.307000000001</v>
+        <v>2527.1239999999998</v>
       </c>
       <c r="I40">
-        <v>130.905</v>
+        <v>95.161000000000001</v>
       </c>
       <c r="J40">
-        <v>1.133</v>
+        <v>734.33900000000006</v>
       </c>
       <c r="K40">
-        <v>0</v>
+        <v>0.45</v>
       </c>
       <c r="L40">
         <v>0</v>
@@ -3926,81 +4046,81 @@
         <v>0</v>
       </c>
       <c r="N40">
-        <v>926.89499999999998</v>
+        <v>389.495</v>
       </c>
       <c r="O40">
-        <v>2743.9050000000002</v>
+        <v>1224.3920000000001</v>
       </c>
       <c r="P40">
-        <v>645.779</v>
+        <v>744.08900000000006</v>
       </c>
       <c r="Q40">
-        <v>3.6890000000000001</v>
+        <v>16.088999999999999</v>
       </c>
       <c r="R40">
-        <v>44012</v>
+        <v>40359</v>
       </c>
       <c r="S40">
         <v>0</v>
       </c>
       <c r="T40">
-        <v>7353.402</v>
+        <v>1302.732</v>
       </c>
       <c r="U40">
-        <v>607.58399999999995</v>
+        <v>614.22299999999996</v>
       </c>
       <c r="V40">
-        <v>92.122</v>
+        <v>36.386000000000003</v>
       </c>
       <c r="W40">
         <v>0</v>
       </c>
       <c r="X40">
-        <v>-2.9790000000000001</v>
+        <v>3.1579999999999999</v>
       </c>
       <c r="Y40">
-        <v>184.203</v>
+        <v>0</v>
       </c>
       <c r="Z40">
-        <v>14.196999999999999</v>
+        <v>-14.048999999999999</v>
       </c>
       <c r="AA40">
-        <v>966.42899999999997</v>
+        <v>37.957000000000001</v>
       </c>
     </row>
     <row r="41" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A41" s="1">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="B41" t="s">
         <v>66</v>
       </c>
       <c r="C41">
-        <v>1314.8240000000001</v>
+        <v>44.764000000000003</v>
       </c>
       <c r="D41">
-        <v>647.26300000000003</v>
+        <v>471.50200000000001</v>
       </c>
       <c r="E41">
-        <v>402.24099999999999</v>
+        <v>368.60300000000001</v>
       </c>
       <c r="F41">
-        <v>367.31099999999998</v>
+        <v>266.33</v>
       </c>
       <c r="G41">
-        <v>2323.8609999999999</v>
+        <v>1651.7090000000001</v>
       </c>
       <c r="H41">
-        <v>12020.931</v>
+        <v>2682.2040000000002</v>
       </c>
       <c r="I41">
-        <v>132.994</v>
+        <v>99.12</v>
       </c>
       <c r="J41">
-        <v>1.141</v>
+        <v>733.57399999999996</v>
       </c>
       <c r="K41">
-        <v>0</v>
+        <v>0.46100000000000002</v>
       </c>
       <c r="L41">
         <v>0</v>
@@ -4009,128 +4129,3448 @@
         <v>0</v>
       </c>
       <c r="N41">
-        <v>986.65700000000004</v>
+        <v>410.69400000000002</v>
       </c>
       <c r="O41">
-        <v>3195.7860000000001</v>
+        <v>1254.0719999999999</v>
       </c>
       <c r="P41">
-        <v>645.40800000000002</v>
+        <v>742.73500000000001</v>
       </c>
       <c r="Q41">
-        <v>232.96899999999999</v>
+        <v>16.417000000000002</v>
       </c>
       <c r="R41">
-        <v>44104</v>
+        <v>40451</v>
       </c>
       <c r="S41">
         <v>0</v>
       </c>
       <c r="T41">
-        <v>8825.1450000000004</v>
+        <v>1428.1320000000001</v>
       </c>
       <c r="U41">
-        <v>840.32500000000005</v>
+        <v>630.64</v>
       </c>
       <c r="V41">
-        <v>135.66399999999999</v>
+        <v>66.866</v>
       </c>
       <c r="W41">
         <v>0</v>
       </c>
       <c r="X41">
-        <v>0.439</v>
+        <v>3.032</v>
       </c>
       <c r="Y41">
-        <v>183.244</v>
+        <v>0</v>
       </c>
       <c r="Z41">
-        <v>110.58</v>
+        <v>-7.1109999999999998</v>
       </c>
       <c r="AA41">
-        <v>1314.8240000000001</v>
+        <v>44.764000000000003</v>
       </c>
     </row>
     <row r="42" spans="1:27" x14ac:dyDescent="0.45">
       <c r="A42" s="1">
-        <v>44196</v>
+        <v>40543</v>
       </c>
       <c r="B42" t="s">
         <v>67</v>
       </c>
       <c r="C42">
+        <v>67.908000000000001</v>
+      </c>
+      <c r="D42">
+        <v>533.72</v>
+      </c>
+      <c r="E42">
+        <v>387.99599999999998</v>
+      </c>
+      <c r="F42">
+        <v>299.72300000000001</v>
+      </c>
+      <c r="G42">
+        <v>1975.346</v>
+      </c>
+      <c r="H42">
+        <v>3062.7640000000001</v>
+      </c>
+      <c r="I42">
+        <v>113.44</v>
+      </c>
+      <c r="J42">
+        <v>718.2</v>
+      </c>
+      <c r="K42">
+        <v>8.1000000000000003E-2</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0</v>
+      </c>
+      <c r="N42">
+        <v>666.62699999999995</v>
+      </c>
+      <c r="O42">
+        <v>1522.2449999999999</v>
+      </c>
+      <c r="P42">
+        <v>964.28099999999995</v>
+      </c>
+      <c r="Q42">
+        <v>275.911</v>
+      </c>
+      <c r="R42">
+        <v>40543</v>
+      </c>
+      <c r="S42">
+        <v>6880</v>
+      </c>
+      <c r="T42">
+        <v>1540.519</v>
+      </c>
+      <c r="U42">
+        <v>906.55100000000004</v>
+      </c>
+      <c r="V42">
+        <v>100.38800000000001</v>
+      </c>
+      <c r="W42">
+        <v>0</v>
+      </c>
+      <c r="X42">
+        <v>221.52199999999999</v>
+      </c>
+      <c r="Y42">
+        <v>12.9</v>
+      </c>
+      <c r="Z42">
+        <v>-14.172000000000001</v>
+      </c>
+      <c r="AA42">
+        <v>67.908000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A43" s="1">
+        <v>40633</v>
+      </c>
+      <c r="B43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C43">
+        <v>33.039000000000001</v>
+      </c>
+      <c r="D43">
+        <v>485.12099999999998</v>
+      </c>
+      <c r="E43">
+        <v>388.55399999999997</v>
+      </c>
+      <c r="F43">
+        <v>277.61099999999999</v>
+      </c>
+      <c r="G43">
+        <v>1797.31</v>
+      </c>
+      <c r="H43">
+        <v>2908.7730000000001</v>
+      </c>
+      <c r="I43">
+        <v>111.373</v>
+      </c>
+      <c r="J43">
+        <v>718.51400000000001</v>
+      </c>
+      <c r="K43">
+        <v>2.569</v>
+      </c>
+      <c r="L43">
+        <v>0</v>
+      </c>
+      <c r="M43">
+        <v>-225.76300000000001</v>
+      </c>
+      <c r="N43">
+        <v>427.59100000000001</v>
+      </c>
+      <c r="O43">
+        <v>1295.2850000000001</v>
+      </c>
+      <c r="P43">
+        <v>741.48299999999995</v>
+      </c>
+      <c r="Q43">
+        <v>-278.64299999999997</v>
+      </c>
+      <c r="R43">
+        <v>40633</v>
+      </c>
+      <c r="S43">
+        <v>0</v>
+      </c>
+      <c r="T43">
+        <v>1613.4880000000001</v>
+      </c>
+      <c r="U43">
+        <v>627.90800000000002</v>
+      </c>
+      <c r="V43">
+        <v>19.782</v>
+      </c>
+      <c r="W43">
+        <v>0</v>
+      </c>
+      <c r="X43">
+        <v>-214.74299999999999</v>
+      </c>
+      <c r="Y43">
+        <v>12.7</v>
+      </c>
+      <c r="Z43">
+        <v>-48.213999999999999</v>
+      </c>
+      <c r="AA43">
+        <v>33.039000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A44" s="1">
+        <v>40724</v>
+      </c>
+      <c r="B44" t="s">
+        <v>69</v>
+      </c>
+      <c r="C44">
+        <v>40.048000000000002</v>
+      </c>
+      <c r="D44">
+        <v>521.65599999999995</v>
+      </c>
+      <c r="E44">
+        <v>394.91300000000001</v>
+      </c>
+      <c r="F44">
+        <v>293.13600000000002</v>
+      </c>
+      <c r="G44">
+        <v>1889.6559999999999</v>
+      </c>
+      <c r="H44">
+        <v>3044.2449999999999</v>
+      </c>
+      <c r="I44">
+        <v>120.514</v>
+      </c>
+      <c r="J44">
+        <v>718.7</v>
+      </c>
+      <c r="K44">
+        <v>0.66300000000000003</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0</v>
+      </c>
+      <c r="N44">
+        <v>442.84399999999999</v>
+      </c>
+      <c r="O44">
+        <v>1318.33</v>
+      </c>
+      <c r="P44">
+        <v>732.69399999999996</v>
+      </c>
+      <c r="Q44">
+        <v>42.393000000000001</v>
+      </c>
+      <c r="R44">
+        <v>40724</v>
+      </c>
+      <c r="S44">
+        <v>0</v>
+      </c>
+      <c r="T44">
+        <v>1725.915</v>
+      </c>
+      <c r="U44">
+        <v>670.30100000000004</v>
+      </c>
+      <c r="V44">
+        <v>110.29900000000001</v>
+      </c>
+      <c r="W44">
+        <v>0</v>
+      </c>
+      <c r="X44">
+        <v>0.86</v>
+      </c>
+      <c r="Y44">
+        <v>12.631</v>
+      </c>
+      <c r="Z44">
+        <v>-51.518000000000001</v>
+      </c>
+      <c r="AA44">
+        <v>40.048000000000002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A45" s="1">
+        <v>40816</v>
+      </c>
+      <c r="B45" t="s">
+        <v>70</v>
+      </c>
+      <c r="C45">
+        <v>45.896999999999998</v>
+      </c>
+      <c r="D45">
+        <v>516.51400000000001</v>
+      </c>
+      <c r="E45">
+        <v>375.03100000000001</v>
+      </c>
+      <c r="F45">
+        <v>296.17599999999999</v>
+      </c>
+      <c r="G45">
+        <v>1877.703</v>
+      </c>
+      <c r="H45">
+        <v>2969.7950000000001</v>
+      </c>
+      <c r="I45">
+        <v>113.476</v>
+      </c>
+      <c r="J45">
+        <v>718.9</v>
+      </c>
+      <c r="K45">
+        <v>0.10299999999999999</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>415.32600000000002</v>
+      </c>
+      <c r="O45">
+        <v>1276.1489999999999</v>
+      </c>
+      <c r="P45">
+        <v>732.40300000000002</v>
+      </c>
+      <c r="Q45">
+        <v>0.72699999999999998</v>
+      </c>
+      <c r="R45">
+        <v>40816</v>
+      </c>
+      <c r="S45">
+        <v>0</v>
+      </c>
+      <c r="T45">
+        <v>1693.646</v>
+      </c>
+      <c r="U45">
+        <v>671.02800000000002</v>
+      </c>
+      <c r="V45">
+        <v>51.158000000000001</v>
+      </c>
+      <c r="W45">
+        <v>0</v>
+      </c>
+      <c r="X45">
+        <v>2.056</v>
+      </c>
+      <c r="Y45">
+        <v>12.696999999999999</v>
+      </c>
+      <c r="Z45">
+        <v>-34.383000000000003</v>
+      </c>
+      <c r="AA45">
+        <v>45.896999999999998</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A46" s="1">
+        <v>40908</v>
+      </c>
+      <c r="B46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C46">
+        <v>59.238999999999997</v>
+      </c>
+      <c r="D46">
+        <v>550.23800000000006</v>
+      </c>
+      <c r="E46">
+        <v>398.67399999999998</v>
+      </c>
+      <c r="F46">
+        <v>310.96600000000001</v>
+      </c>
+      <c r="G46">
+        <v>1798.155</v>
+      </c>
+      <c r="H46">
+        <v>3096.8029999999999</v>
+      </c>
+      <c r="I46">
+        <v>129.124</v>
+      </c>
+      <c r="J46">
+        <v>719.1</v>
+      </c>
+      <c r="K46">
+        <v>0.214</v>
+      </c>
+      <c r="L46">
+        <v>0</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>459.11500000000001</v>
+      </c>
+      <c r="O46">
+        <v>1352.421</v>
+      </c>
+      <c r="P46">
+        <v>732.51199999999994</v>
+      </c>
+      <c r="Q46">
+        <v>-96.796999999999997</v>
+      </c>
+      <c r="R46">
+        <v>40908</v>
+      </c>
+      <c r="S46">
+        <v>7030</v>
+      </c>
+      <c r="T46">
+        <v>1744.3820000000001</v>
+      </c>
+      <c r="U46">
+        <v>574.23099999999999</v>
+      </c>
+      <c r="V46">
+        <v>78.576999999999998</v>
+      </c>
+      <c r="W46">
+        <v>0</v>
+      </c>
+      <c r="X46">
+        <v>-1.7330000000000001</v>
+      </c>
+      <c r="Y46">
+        <v>12.598000000000001</v>
+      </c>
+      <c r="Z46">
+        <v>9.4109999999999996</v>
+      </c>
+      <c r="AA46">
+        <v>59.238999999999997</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A47" s="1">
+        <v>40999</v>
+      </c>
+      <c r="B47" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47">
+        <v>31.004999999999999</v>
+      </c>
+      <c r="D47">
+        <v>486.27699999999999</v>
+      </c>
+      <c r="E47">
+        <v>387.61900000000003</v>
+      </c>
+      <c r="F47">
+        <v>278.58199999999999</v>
+      </c>
+      <c r="G47">
+        <v>1817.4480000000001</v>
+      </c>
+      <c r="H47">
+        <v>3187.8739999999998</v>
+      </c>
+      <c r="I47">
+        <v>109.571</v>
+      </c>
+      <c r="J47">
+        <v>719.3</v>
+      </c>
+      <c r="K47">
+        <v>0.40899999999999997</v>
+      </c>
+      <c r="L47">
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <v>-0.22500000000000001</v>
+      </c>
+      <c r="N47">
+        <v>444.08</v>
+      </c>
+      <c r="O47">
+        <v>1347.828</v>
+      </c>
+      <c r="P47">
+        <v>732.70799999999997</v>
+      </c>
+      <c r="Q47">
+        <v>-40.418999999999997</v>
+      </c>
+      <c r="R47">
+        <v>40999</v>
+      </c>
+      <c r="S47">
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <v>1840.046</v>
+      </c>
+      <c r="U47">
+        <v>533.81200000000001</v>
+      </c>
+      <c r="V47">
+        <v>35.26</v>
+      </c>
+      <c r="W47">
+        <v>0</v>
+      </c>
+      <c r="X47">
+        <v>3.7189999999999999</v>
+      </c>
+      <c r="Y47">
+        <v>12.599</v>
+      </c>
+      <c r="Z47">
+        <v>-34.646999999999998</v>
+      </c>
+      <c r="AA47">
+        <v>31.004999999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A48" s="1">
+        <v>41090</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48">
+        <v>48.343000000000004</v>
+      </c>
+      <c r="D48">
+        <v>510.42200000000003</v>
+      </c>
+      <c r="E48">
+        <v>373.81700000000001</v>
+      </c>
+      <c r="F48">
+        <v>287.89999999999998</v>
+      </c>
+      <c r="G48">
+        <v>1811.0719999999999</v>
+      </c>
+      <c r="H48">
+        <v>3168.895</v>
+      </c>
+      <c r="I48">
+        <v>119.44799999999999</v>
+      </c>
+      <c r="J48">
+        <v>719.5</v>
+      </c>
+      <c r="K48">
+        <v>0.38300000000000001</v>
+      </c>
+      <c r="L48">
+        <v>0</v>
+      </c>
+      <c r="M48">
+        <v>0</v>
+      </c>
+      <c r="N48">
+        <v>417.18400000000003</v>
+      </c>
+      <c r="O48">
+        <v>1316.403</v>
+      </c>
+      <c r="P48">
+        <v>732.83699999999999</v>
+      </c>
+      <c r="Q48">
+        <v>-77.325000000000003</v>
+      </c>
+      <c r="R48">
+        <v>41090</v>
+      </c>
+      <c r="S48">
+        <v>0</v>
+      </c>
+      <c r="T48">
+        <v>1852.492</v>
+      </c>
+      <c r="U48">
+        <v>456.48700000000002</v>
+      </c>
+      <c r="V48">
+        <v>73.641999999999996</v>
+      </c>
+      <c r="W48">
+        <v>0</v>
+      </c>
+      <c r="X48">
+        <v>2.8</v>
+      </c>
+      <c r="Y48">
+        <v>12.554</v>
+      </c>
+      <c r="Z48">
+        <v>-109.99</v>
+      </c>
+      <c r="AA48">
+        <v>48.343000000000004</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A49" s="1">
+        <v>41182</v>
+      </c>
+      <c r="B49" t="s">
+        <v>74</v>
+      </c>
+      <c r="C49">
+        <v>42.877000000000002</v>
+      </c>
+      <c r="D49">
+        <v>498.697</v>
+      </c>
+      <c r="E49">
+        <v>375.8</v>
+      </c>
+      <c r="F49">
+        <v>273.77</v>
+      </c>
+      <c r="G49">
+        <v>1845.441</v>
+      </c>
+      <c r="H49">
+        <v>3303.0160000000001</v>
+      </c>
+      <c r="I49">
+        <v>113.282</v>
+      </c>
+      <c r="J49">
+        <v>719.8</v>
+      </c>
+      <c r="K49">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="L49">
+        <v>0</v>
+      </c>
+      <c r="M49">
+        <v>0</v>
+      </c>
+      <c r="N49">
+        <v>433.666</v>
+      </c>
+      <c r="O49">
+        <v>1367.5340000000001</v>
+      </c>
+      <c r="P49">
+        <v>732.53899999999999</v>
+      </c>
+      <c r="Q49">
+        <v>-30.03</v>
+      </c>
+      <c r="R49">
+        <v>41182</v>
+      </c>
+      <c r="S49">
+        <v>0</v>
+      </c>
+      <c r="T49">
+        <v>1935.482</v>
+      </c>
+      <c r="U49">
+        <v>426.45699999999999</v>
+      </c>
+      <c r="V49">
+        <v>71.341999999999999</v>
+      </c>
+      <c r="W49">
+        <v>0</v>
+      </c>
+      <c r="X49">
+        <v>2.5539999999999998</v>
+      </c>
+      <c r="Y49">
+        <v>12.433</v>
+      </c>
+      <c r="Z49">
+        <v>-42.371000000000002</v>
+      </c>
+      <c r="AA49">
+        <v>42.633000000000003</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A50" s="1">
+        <v>41274</v>
+      </c>
+      <c r="B50" t="s">
+        <v>75</v>
+      </c>
+      <c r="C50">
+        <v>43.252000000000002</v>
+      </c>
+      <c r="D50">
+        <v>573.83900000000006</v>
+      </c>
+      <c r="E50">
+        <v>398.73899999999998</v>
+      </c>
+      <c r="F50">
+        <v>314.54599999999999</v>
+      </c>
+      <c r="G50">
+        <v>1936.682</v>
+      </c>
+      <c r="H50">
+        <v>3443.5030000000002</v>
+      </c>
+      <c r="I50">
+        <v>130.86699999999999</v>
+      </c>
+      <c r="J50">
+        <v>720</v>
+      </c>
+      <c r="K50">
+        <v>1.55</v>
+      </c>
+      <c r="L50">
+        <v>0</v>
+      </c>
+      <c r="M50">
+        <v>0</v>
+      </c>
+      <c r="N50">
+        <v>472.4</v>
+      </c>
+      <c r="O50">
+        <v>1427.963</v>
+      </c>
+      <c r="P50">
+        <v>734.16399999999999</v>
+      </c>
+      <c r="Q50">
+        <v>36.930999999999997</v>
+      </c>
+      <c r="R50">
+        <v>41274</v>
+      </c>
+      <c r="S50">
+        <v>7380</v>
+      </c>
+      <c r="T50">
+        <v>2015.54</v>
+      </c>
+      <c r="U50">
+        <v>463.38799999999998</v>
+      </c>
+      <c r="V50">
+        <v>95.784000000000006</v>
+      </c>
+      <c r="W50">
+        <v>0</v>
+      </c>
+      <c r="X50">
+        <v>3.5150000000000001</v>
+      </c>
+      <c r="Y50">
+        <v>12.414</v>
+      </c>
+      <c r="Z50">
+        <v>-35.610999999999997</v>
+      </c>
+      <c r="AA50">
+        <v>43.252000000000002</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A51" s="1">
+        <v>41364</v>
+      </c>
+      <c r="B51" t="s">
+        <v>76</v>
+      </c>
+      <c r="C51">
+        <v>20.151</v>
+      </c>
+      <c r="D51">
+        <v>499.67200000000003</v>
+      </c>
+      <c r="E51">
+        <v>377.548</v>
+      </c>
+      <c r="F51">
+        <v>271.41199999999998</v>
+      </c>
+      <c r="G51">
+        <v>1865.18</v>
+      </c>
+      <c r="H51">
+        <v>3456.8029999999999</v>
+      </c>
+      <c r="I51">
+        <v>119.34</v>
+      </c>
+      <c r="J51">
+        <v>720.18600000000004</v>
+      </c>
+      <c r="K51">
+        <v>1.498</v>
+      </c>
+      <c r="L51">
+        <v>0</v>
+      </c>
+      <c r="M51">
+        <v>-9.2999999999999999E-2</v>
+      </c>
+      <c r="N51">
+        <v>446.74</v>
+      </c>
+      <c r="O51">
+        <v>1425.586</v>
+      </c>
+      <c r="P51">
+        <v>734.28399999999999</v>
+      </c>
+      <c r="Q51">
+        <v>-94.759</v>
+      </c>
+      <c r="R51">
+        <v>41364</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>2031.2170000000001</v>
+      </c>
+      <c r="U51">
+        <v>368.62900000000002</v>
+      </c>
+      <c r="V51">
+        <v>24.016999999999999</v>
+      </c>
+      <c r="W51">
+        <v>0</v>
+      </c>
+      <c r="X51">
+        <v>-7.4260000000000002</v>
+      </c>
+      <c r="Y51">
+        <v>12.4</v>
+      </c>
+      <c r="Z51">
+        <v>-9.6859999999999999</v>
+      </c>
+      <c r="AA51">
+        <v>20.151</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A52" s="1">
+        <v>41455</v>
+      </c>
+      <c r="B52" t="s">
+        <v>77</v>
+      </c>
+      <c r="C52">
+        <v>34.601999999999997</v>
+      </c>
+      <c r="D52">
+        <v>525.32100000000003</v>
+      </c>
+      <c r="E52">
+        <v>395.97399999999999</v>
+      </c>
+      <c r="F52">
+        <v>300.101</v>
+      </c>
+      <c r="G52">
+        <v>1903.0360000000001</v>
+      </c>
+      <c r="H52">
+        <v>3482.8209999999999</v>
+      </c>
+      <c r="I52">
+        <v>129.119</v>
+      </c>
+      <c r="J52">
+        <v>720.4</v>
+      </c>
+      <c r="K52">
+        <v>1.4930000000000001</v>
+      </c>
+      <c r="L52">
+        <v>0</v>
+      </c>
+      <c r="M52">
+        <v>0</v>
+      </c>
+      <c r="N52">
+        <v>431.24400000000003</v>
+      </c>
+      <c r="O52">
+        <v>1411.8789999999999</v>
+      </c>
+      <c r="P52">
+        <v>734.49300000000005</v>
+      </c>
+      <c r="Q52">
+        <v>-1.63</v>
+      </c>
+      <c r="R52">
+        <v>41455</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>2070.942</v>
+      </c>
+      <c r="U52">
+        <v>366.99900000000002</v>
+      </c>
+      <c r="V52">
+        <v>19.736999999999998</v>
+      </c>
+      <c r="W52">
+        <v>0</v>
+      </c>
+      <c r="X52">
+        <v>1.29</v>
+      </c>
+      <c r="Y52">
+        <v>12.4</v>
+      </c>
+      <c r="Z52">
+        <v>-0.98699999999999999</v>
+      </c>
+      <c r="AA52">
+        <v>34.601999999999997</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A53" s="1">
+        <v>41547</v>
+      </c>
+      <c r="B53" t="s">
+        <v>78</v>
+      </c>
+      <c r="C53">
+        <v>-7.0990000000000002</v>
+      </c>
+      <c r="D53">
+        <v>505.06599999999997</v>
+      </c>
+      <c r="E53">
+        <v>383.471</v>
+      </c>
+      <c r="F53">
+        <v>284.21600000000001</v>
+      </c>
+      <c r="G53">
+        <v>1674.5429999999999</v>
+      </c>
+      <c r="H53">
+        <v>3280.4079999999999</v>
+      </c>
+      <c r="I53">
+        <v>131.899</v>
+      </c>
+      <c r="J53">
+        <v>423.2</v>
+      </c>
+      <c r="K53">
+        <v>1.5049999999999999</v>
+      </c>
+      <c r="L53">
+        <v>0</v>
+      </c>
+      <c r="M53">
+        <v>0</v>
+      </c>
+      <c r="N53">
+        <v>462.88499999999999</v>
+      </c>
+      <c r="O53">
+        <v>1156.1679999999999</v>
+      </c>
+      <c r="P53">
+        <v>437.24599999999998</v>
+      </c>
+      <c r="Q53">
+        <v>-75.206000000000003</v>
+      </c>
+      <c r="R53">
+        <v>41547</v>
+      </c>
+      <c r="S53">
+        <v>0</v>
+      </c>
+      <c r="T53">
+        <v>2124.2399999999998</v>
+      </c>
+      <c r="U53">
+        <v>291.79300000000001</v>
+      </c>
+      <c r="V53">
+        <v>54.832000000000001</v>
+      </c>
+      <c r="W53">
+        <v>0</v>
+      </c>
+      <c r="X53">
+        <v>-309.32900000000001</v>
+      </c>
+      <c r="Y53">
+        <v>12.340999999999999</v>
+      </c>
+      <c r="Z53">
+        <v>197.733</v>
+      </c>
+      <c r="AA53">
+        <v>-7.0990000000000002</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A54" s="1">
+        <v>41639</v>
+      </c>
+      <c r="B54" t="s">
+        <v>79</v>
+      </c>
+      <c r="C54">
+        <v>30.135999999999999</v>
+      </c>
+      <c r="D54">
+        <v>602.63499999999999</v>
+      </c>
+      <c r="E54">
+        <v>422.66</v>
+      </c>
+      <c r="F54">
+        <v>322.74900000000002</v>
+      </c>
+      <c r="G54">
+        <v>1757.479</v>
+      </c>
+      <c r="H54">
+        <v>3388.79</v>
+      </c>
+      <c r="I54">
+        <v>148.51</v>
+      </c>
+      <c r="J54">
+        <v>423.2</v>
+      </c>
+      <c r="K54">
+        <v>1.5860000000000001</v>
+      </c>
+      <c r="L54">
+        <v>0</v>
+      </c>
+      <c r="M54">
+        <v>0</v>
+      </c>
+      <c r="N54">
+        <v>487.47199999999998</v>
+      </c>
+      <c r="O54">
+        <v>1202.068</v>
+      </c>
+      <c r="P54">
+        <v>437.40100000000001</v>
+      </c>
+      <c r="Q54">
+        <v>39.758000000000003</v>
+      </c>
+      <c r="R54">
+        <v>41639</v>
+      </c>
+      <c r="S54">
+        <v>7750</v>
+      </c>
+      <c r="T54">
+        <v>2186.7220000000002</v>
+      </c>
+      <c r="U54">
+        <v>331.55099999999999</v>
+      </c>
+      <c r="V54">
+        <v>70.55</v>
+      </c>
+      <c r="W54">
+        <v>0</v>
+      </c>
+      <c r="X54">
+        <v>3.7679999999999998</v>
+      </c>
+      <c r="Y54">
+        <v>12.414999999999999</v>
+      </c>
+      <c r="Z54">
+        <v>-7.9429999999999996</v>
+      </c>
+      <c r="AA54">
+        <v>30.135999999999999</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A55" s="1">
+        <v>41729</v>
+      </c>
+      <c r="B55" t="s">
+        <v>80</v>
+      </c>
+      <c r="C55">
+        <v>6.6680000000000001</v>
+      </c>
+      <c r="D55">
+        <v>509.34399999999999</v>
+      </c>
+      <c r="E55">
+        <v>383.928</v>
+      </c>
+      <c r="F55">
+        <v>275.28899999999999</v>
+      </c>
+      <c r="G55">
+        <v>1766.81</v>
+      </c>
+      <c r="H55">
+        <v>3441.3780000000002</v>
+      </c>
+      <c r="I55">
+        <v>130.864</v>
+      </c>
+      <c r="J55">
+        <v>423.3</v>
+      </c>
+      <c r="K55">
+        <v>1.532</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>-0.11600000000000001</v>
+      </c>
+      <c r="N55">
+        <v>481.25099999999998</v>
+      </c>
+      <c r="O55">
+        <v>1208.7750000000001</v>
+      </c>
+      <c r="P55">
+        <v>437.34300000000002</v>
+      </c>
+      <c r="Q55">
+        <v>32.956000000000003</v>
+      </c>
+      <c r="R55">
+        <v>41729</v>
+      </c>
+      <c r="S55">
+        <v>0</v>
+      </c>
+      <c r="T55">
+        <v>2232.6030000000001</v>
+      </c>
+      <c r="U55">
+        <v>364.50700000000001</v>
+      </c>
+      <c r="V55">
+        <v>65.569999999999993</v>
+      </c>
+      <c r="W55">
+        <v>0</v>
+      </c>
+      <c r="X55">
+        <v>3.49</v>
+      </c>
+      <c r="Y55">
+        <v>12.311</v>
+      </c>
+      <c r="Z55">
+        <v>-0.745</v>
+      </c>
+      <c r="AA55">
+        <v>6.6680000000000001</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A56" s="1">
+        <v>41820</v>
+      </c>
+      <c r="B56" t="s">
+        <v>81</v>
+      </c>
+      <c r="C56">
+        <v>31.631</v>
+      </c>
+      <c r="D56">
+        <v>536.83199999999999</v>
+      </c>
+      <c r="E56">
+        <v>378.89100000000002</v>
+      </c>
+      <c r="F56">
+        <v>297.24200000000002</v>
+      </c>
+      <c r="G56">
+        <v>1767.4939999999999</v>
+      </c>
+      <c r="H56">
+        <v>3467.7510000000002</v>
+      </c>
+      <c r="I56">
+        <v>125.461</v>
+      </c>
+      <c r="J56">
+        <v>423.3</v>
+      </c>
+      <c r="K56">
+        <v>1.532</v>
+      </c>
+      <c r="L56">
+        <v>0</v>
+      </c>
+      <c r="M56">
+        <v>0</v>
+      </c>
+      <c r="N56">
+        <v>480.24799999999999</v>
+      </c>
+      <c r="O56">
+        <v>1217.807</v>
+      </c>
+      <c r="P56">
+        <v>437.33199999999999</v>
+      </c>
+      <c r="Q56">
+        <v>20.163</v>
+      </c>
+      <c r="R56">
+        <v>41820</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>2249.944</v>
+      </c>
+      <c r="U56">
+        <v>384.67</v>
+      </c>
+      <c r="V56">
+        <v>76.872</v>
+      </c>
+      <c r="W56">
+        <v>0</v>
+      </c>
+      <c r="X56">
+        <v>2.8079999999999998</v>
+      </c>
+      <c r="Y56">
+        <v>12.307</v>
+      </c>
+      <c r="Z56">
+        <v>16.753</v>
+      </c>
+      <c r="AA56">
+        <v>31.631</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A57" s="1">
+        <v>41912</v>
+      </c>
+      <c r="B57" t="s">
+        <v>82</v>
+      </c>
+      <c r="C57">
+        <v>11.509</v>
+      </c>
+      <c r="D57">
+        <v>530.64400000000001</v>
+      </c>
+      <c r="E57">
+        <v>354.40100000000001</v>
+      </c>
+      <c r="F57">
+        <v>288.57600000000002</v>
+      </c>
+      <c r="G57">
+        <v>1764.4449999999999</v>
+      </c>
+      <c r="H57">
+        <v>3386.0239999999999</v>
+      </c>
+      <c r="I57">
+        <v>126.64</v>
+      </c>
+      <c r="J57">
+        <v>423.4</v>
+      </c>
+      <c r="K57">
+        <v>1.21</v>
+      </c>
+      <c r="L57">
+        <v>0</v>
+      </c>
+      <c r="M57">
+        <v>0</v>
+      </c>
+      <c r="N57">
+        <v>503.78300000000002</v>
+      </c>
+      <c r="O57">
+        <v>1209.2940000000001</v>
+      </c>
+      <c r="P57">
+        <v>437.21</v>
+      </c>
+      <c r="Q57">
+        <v>39.923000000000002</v>
+      </c>
+      <c r="R57">
+        <v>41912</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>2176.73</v>
+      </c>
+      <c r="U57">
+        <v>424.59300000000002</v>
+      </c>
+      <c r="V57">
+        <v>90.653999999999996</v>
+      </c>
+      <c r="W57">
+        <v>0</v>
+      </c>
+      <c r="X57">
+        <v>1.766</v>
+      </c>
+      <c r="Y57">
+        <v>12.339</v>
+      </c>
+      <c r="Z57">
+        <v>-17.457999999999998</v>
+      </c>
+      <c r="AA57">
+        <v>11.509</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A58" s="1">
+        <v>42004</v>
+      </c>
+      <c r="B58" t="s">
+        <v>83</v>
+      </c>
+      <c r="C58">
+        <v>39.036999999999999</v>
+      </c>
+      <c r="D58">
+        <v>598.22400000000005</v>
+      </c>
+      <c r="E58">
+        <v>377.64</v>
+      </c>
+      <c r="F58">
+        <v>329.01</v>
+      </c>
+      <c r="G58">
+        <v>1716.367</v>
+      </c>
+      <c r="H58">
+        <v>3341.2779999999998</v>
+      </c>
+      <c r="I58">
+        <v>128.608</v>
+      </c>
+      <c r="J58">
+        <v>423.5</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0</v>
+      </c>
+      <c r="M58">
+        <v>0</v>
+      </c>
+      <c r="N58">
+        <v>446.76100000000002</v>
+      </c>
+      <c r="O58">
+        <v>1156.123</v>
+      </c>
+      <c r="P58">
+        <v>435.97500000000002</v>
+      </c>
+      <c r="Q58">
+        <v>-11.342000000000001</v>
+      </c>
+      <c r="R58">
+        <v>42004</v>
+      </c>
+      <c r="S58">
+        <v>7600</v>
+      </c>
+      <c r="T58">
+        <v>2185.1550000000002</v>
+      </c>
+      <c r="U58">
+        <v>413.25099999999998</v>
+      </c>
+      <c r="V58">
+        <v>40.216000000000001</v>
+      </c>
+      <c r="W58">
+        <v>0</v>
+      </c>
+      <c r="X58">
+        <v>3.625</v>
+      </c>
+      <c r="Y58">
+        <v>12.21</v>
+      </c>
+      <c r="Z58">
+        <v>-8.1809999999999992</v>
+      </c>
+      <c r="AA58">
+        <v>39.036999999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A59" s="1">
+        <v>42094</v>
+      </c>
+      <c r="B59" t="s">
+        <v>84</v>
+      </c>
+      <c r="C59">
+        <v>17.818000000000001</v>
+      </c>
+      <c r="D59">
+        <v>472.82100000000003</v>
+      </c>
+      <c r="E59">
+        <v>342.22300000000001</v>
+      </c>
+      <c r="F59">
+        <v>270.10599999999999</v>
+      </c>
+      <c r="G59">
+        <v>1701.8440000000001</v>
+      </c>
+      <c r="H59">
+        <v>3326.1959999999999</v>
+      </c>
+      <c r="I59">
+        <v>250.81299999999999</v>
+      </c>
+      <c r="J59">
+        <v>423.5</v>
+      </c>
+      <c r="K59">
+        <v>0</v>
+      </c>
+      <c r="L59">
+        <v>0</v>
+      </c>
+      <c r="M59">
+        <v>-6.6000000000000003E-2</v>
+      </c>
+      <c r="N59">
+        <v>416.88200000000001</v>
+      </c>
+      <c r="O59">
+        <v>1127.683</v>
+      </c>
+      <c r="P59">
+        <v>435.92500000000001</v>
+      </c>
+      <c r="Q59">
+        <v>12.477</v>
+      </c>
+      <c r="R59">
+        <v>42094</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>2198.5129999999999</v>
+      </c>
+      <c r="U59">
+        <v>425.72800000000001</v>
+      </c>
+      <c r="V59">
+        <v>29.446000000000002</v>
+      </c>
+      <c r="W59">
+        <v>0</v>
+      </c>
+      <c r="X59">
+        <v>-0.33100000000000002</v>
+      </c>
+      <c r="Y59">
+        <v>12.161</v>
+      </c>
+      <c r="Z59">
+        <v>1.2869999999999999</v>
+      </c>
+      <c r="AA59">
+        <v>17.818000000000001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A60" s="1">
+        <v>42185</v>
+      </c>
+      <c r="B60" t="s">
+        <v>85</v>
+      </c>
+      <c r="C60">
+        <v>28.422999999999998</v>
+      </c>
+      <c r="D60">
+        <v>506.10199999999998</v>
+      </c>
+      <c r="E60">
+        <v>354.161</v>
+      </c>
+      <c r="F60">
+        <v>279.59699999999998</v>
+      </c>
+      <c r="G60">
+        <v>1741.9280000000001</v>
+      </c>
+      <c r="H60">
+        <v>3525.3429999999998</v>
+      </c>
+      <c r="I60">
+        <v>239.84700000000001</v>
+      </c>
+      <c r="J60">
+        <v>423.6</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0</v>
+      </c>
+      <c r="M60">
+        <v>0</v>
+      </c>
+      <c r="N60">
+        <v>403.89400000000001</v>
+      </c>
+      <c r="O60">
+        <v>1166.4459999999999</v>
+      </c>
+      <c r="P60">
+        <v>435.928</v>
+      </c>
+      <c r="Q60">
+        <v>24.405000000000001</v>
+      </c>
+      <c r="R60">
+        <v>42185</v>
+      </c>
+      <c r="S60">
+        <v>0</v>
+      </c>
+      <c r="T60">
+        <v>2358.8969999999999</v>
+      </c>
+      <c r="U60">
+        <v>450.13299999999998</v>
+      </c>
+      <c r="V60">
+        <v>38.533000000000001</v>
+      </c>
+      <c r="W60">
+        <v>0</v>
+      </c>
+      <c r="X60">
+        <v>3.0609999999999999</v>
+      </c>
+      <c r="Y60">
+        <v>12.06</v>
+      </c>
+      <c r="Z60">
+        <v>6.0069999999999997</v>
+      </c>
+      <c r="AA60">
+        <v>28.422999999999998</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A61" s="1">
+        <v>42277</v>
+      </c>
+      <c r="B61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61">
+        <v>17.37</v>
+      </c>
+      <c r="D61">
+        <v>469.96100000000001</v>
+      </c>
+      <c r="E61">
+        <v>341.548</v>
+      </c>
+      <c r="F61">
+        <v>263.452</v>
+      </c>
+      <c r="G61">
+        <v>1794.4159999999999</v>
+      </c>
+      <c r="H61">
+        <v>3666.3960000000002</v>
+      </c>
+      <c r="I61">
+        <v>268.22800000000001</v>
+      </c>
+      <c r="J61">
+        <v>423.6</v>
+      </c>
+      <c r="K61">
+        <v>0</v>
+      </c>
+      <c r="L61">
+        <v>0</v>
+      </c>
+      <c r="M61">
+        <v>0</v>
+      </c>
+      <c r="N61">
+        <v>435.23500000000001</v>
+      </c>
+      <c r="O61">
+        <v>1236.6669999999999</v>
+      </c>
+      <c r="P61">
+        <v>436.10700000000003</v>
+      </c>
+      <c r="Q61">
+        <v>57.195999999999998</v>
+      </c>
+      <c r="R61">
+        <v>42277</v>
+      </c>
+      <c r="S61">
+        <v>0</v>
+      </c>
+      <c r="T61">
+        <v>2429.7289999999998</v>
+      </c>
+      <c r="U61">
+        <v>507.32900000000001</v>
+      </c>
+      <c r="V61">
+        <v>82.278999999999996</v>
+      </c>
+      <c r="W61">
+        <v>0</v>
+      </c>
+      <c r="X61">
+        <v>2.1230000000000002</v>
+      </c>
+      <c r="Y61">
+        <v>12.128</v>
+      </c>
+      <c r="Z61">
+        <v>-1.548</v>
+      </c>
+      <c r="AA61">
+        <v>17.37</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A62" s="1">
+        <v>42369</v>
+      </c>
+      <c r="B62" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62">
+        <v>49.481999999999999</v>
+      </c>
+      <c r="D62">
+        <v>570.55700000000002</v>
+      </c>
+      <c r="E62">
+        <v>391.48500000000001</v>
+      </c>
+      <c r="F62">
+        <v>308.51499999999999</v>
+      </c>
+      <c r="G62">
+        <v>1777.596</v>
+      </c>
+      <c r="H62">
+        <v>3709.7179999999998</v>
+      </c>
+      <c r="I62">
+        <v>122.39100000000001</v>
+      </c>
+      <c r="J62">
+        <v>421.9</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0</v>
+      </c>
+      <c r="M62">
+        <v>0</v>
+      </c>
+      <c r="N62">
+        <v>441.351</v>
+      </c>
+      <c r="O62">
+        <v>1219.2149999999999</v>
+      </c>
+      <c r="P62">
+        <v>434.18099999999998</v>
+      </c>
+      <c r="Q62">
+        <v>-49.78</v>
+      </c>
+      <c r="R62">
+        <v>42369</v>
+      </c>
+      <c r="S62">
+        <v>7770</v>
+      </c>
+      <c r="T62">
+        <v>2490.5030000000002</v>
+      </c>
+      <c r="U62">
+        <v>457.54899999999998</v>
+      </c>
+      <c r="V62">
+        <v>35.951999999999998</v>
+      </c>
+      <c r="W62">
+        <v>0</v>
+      </c>
+      <c r="X62">
+        <v>3.7280000000000002</v>
+      </c>
+      <c r="Y62">
+        <v>11.983000000000001</v>
+      </c>
+      <c r="Z62">
+        <v>-50.756</v>
+      </c>
+      <c r="AA62">
+        <v>49.481999999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A63" s="1">
+        <v>42460</v>
+      </c>
+      <c r="B63" t="s">
+        <v>88</v>
+      </c>
+      <c r="C63">
+        <v>12.276</v>
+      </c>
+      <c r="D63">
+        <v>471.197</v>
+      </c>
+      <c r="E63">
+        <v>381.1</v>
+      </c>
+      <c r="F63">
+        <v>264.029</v>
+      </c>
+      <c r="G63">
+        <v>1775.2639999999999</v>
+      </c>
+      <c r="H63">
+        <v>3753.413</v>
+      </c>
+      <c r="I63">
+        <v>241.249</v>
+      </c>
+      <c r="J63">
+        <v>422</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0</v>
+      </c>
+      <c r="M63">
+        <v>-7.6999999999999999E-2</v>
+      </c>
+      <c r="N63">
+        <v>400.88799999999998</v>
+      </c>
+      <c r="O63">
+        <v>1208.9639999999999</v>
+      </c>
+      <c r="P63">
+        <v>434.27600000000001</v>
+      </c>
+      <c r="Q63">
+        <v>-53.933999999999997</v>
+      </c>
+      <c r="R63">
+        <v>42460</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>2544.4490000000001</v>
+      </c>
+      <c r="U63">
+        <v>403.61500000000001</v>
+      </c>
+      <c r="V63">
+        <v>-7.4480000000000004</v>
+      </c>
+      <c r="W63">
+        <v>0</v>
+      </c>
+      <c r="X63">
+        <v>0.25800000000000001</v>
+      </c>
+      <c r="Y63">
+        <v>11.98</v>
+      </c>
+      <c r="Z63">
+        <v>-15.929</v>
+      </c>
+      <c r="AA63">
+        <v>12.276</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A64" s="1">
+        <v>42551</v>
+      </c>
+      <c r="B64" t="s">
+        <v>89</v>
+      </c>
+      <c r="C64">
+        <v>18.013999999999999</v>
+      </c>
+      <c r="D64">
+        <v>516.77700000000004</v>
+      </c>
+      <c r="E64">
+        <v>366.28100000000001</v>
+      </c>
+      <c r="F64">
+        <v>281.93200000000002</v>
+      </c>
+      <c r="G64">
+        <v>1805.6880000000001</v>
+      </c>
+      <c r="H64">
+        <v>3874.6350000000002</v>
+      </c>
+      <c r="I64">
+        <v>256.11200000000002</v>
+      </c>
+      <c r="J64">
+        <v>422.2</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>410.40499999999997</v>
+      </c>
+      <c r="O64">
+        <v>1260.0740000000001</v>
+      </c>
+      <c r="P64">
+        <v>434.351</v>
+      </c>
+      <c r="Q64">
+        <v>15.036</v>
+      </c>
+      <c r="R64">
+        <v>42551</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>2614.5610000000001</v>
+      </c>
+      <c r="U64">
+        <v>418.65100000000001</v>
+      </c>
+      <c r="V64">
+        <v>77.155000000000001</v>
+      </c>
+      <c r="W64">
+        <v>0</v>
+      </c>
+      <c r="X64">
+        <v>3.036</v>
+      </c>
+      <c r="Y64">
+        <v>11.856999999999999</v>
+      </c>
+      <c r="Z64">
+        <v>-26.071999999999999</v>
+      </c>
+      <c r="AA64">
+        <v>18.013999999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A65" s="1">
+        <v>42643</v>
+      </c>
+      <c r="B65" t="s">
+        <v>90</v>
+      </c>
+      <c r="C65">
+        <v>18.405000000000001</v>
+      </c>
+      <c r="D65">
+        <v>508.745</v>
+      </c>
+      <c r="E65">
+        <v>367.66199999999998</v>
+      </c>
+      <c r="F65">
+        <v>279.46899999999999</v>
+      </c>
+      <c r="G65">
+        <v>1850.1030000000001</v>
+      </c>
+      <c r="H65">
+        <v>4019.7260000000001</v>
+      </c>
+      <c r="I65">
+        <v>280.45299999999997</v>
+      </c>
+      <c r="J65">
+        <v>422.3</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0</v>
+      </c>
+      <c r="N65">
+        <v>442.71800000000002</v>
+      </c>
+      <c r="O65">
+        <v>1317.0350000000001</v>
+      </c>
+      <c r="P65">
+        <v>434.43400000000003</v>
+      </c>
+      <c r="Q65">
+        <v>-0.71199999999999997</v>
+      </c>
+      <c r="R65">
+        <v>42643</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>2702.6909999999998</v>
+      </c>
+      <c r="U65">
+        <v>417.93900000000002</v>
+      </c>
+      <c r="V65">
+        <v>51.606999999999999</v>
+      </c>
+      <c r="W65">
+        <v>0</v>
+      </c>
+      <c r="X65">
+        <v>2.8969999999999998</v>
+      </c>
+      <c r="Y65">
+        <v>11.837</v>
+      </c>
+      <c r="Z65">
+        <v>-14.02</v>
+      </c>
+      <c r="AA65">
+        <v>18.405000000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A66" s="1">
+        <v>42735</v>
+      </c>
+      <c r="B66" t="s">
+        <v>91</v>
+      </c>
+      <c r="C66">
+        <v>-22.695</v>
+      </c>
+      <c r="D66">
+        <v>571.45299999999997</v>
+      </c>
+      <c r="E66">
+        <v>372.34800000000001</v>
+      </c>
+      <c r="F66">
+        <v>314.45699999999999</v>
+      </c>
+      <c r="G66">
+        <v>1844.5239999999999</v>
+      </c>
+      <c r="H66">
+        <v>3850.5039999999999</v>
+      </c>
+      <c r="I66">
+        <v>133.10900000000001</v>
+      </c>
+      <c r="J66">
+        <v>422.5</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0</v>
+      </c>
+      <c r="M66">
+        <v>0</v>
+      </c>
+      <c r="N66">
+        <v>471.322</v>
+      </c>
+      <c r="O66">
+        <v>1271.3440000000001</v>
+      </c>
+      <c r="P66">
+        <v>434.52</v>
+      </c>
+      <c r="Q66">
+        <v>38.325000000000003</v>
+      </c>
+      <c r="R66">
+        <v>42735</v>
+      </c>
+      <c r="S66">
+        <v>8250</v>
+      </c>
+      <c r="T66">
+        <v>2579.16</v>
+      </c>
+      <c r="U66">
+        <v>456.26400000000001</v>
+      </c>
+      <c r="V66">
+        <v>95.119</v>
+      </c>
+      <c r="W66">
+        <v>0</v>
+      </c>
+      <c r="X66">
+        <v>2.8290000000000002</v>
+      </c>
+      <c r="Y66">
+        <v>11.686</v>
+      </c>
+      <c r="Z66">
+        <v>-2.1709999999999998</v>
+      </c>
+      <c r="AA66">
+        <v>-22.695</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A67" s="1">
+        <v>42825</v>
+      </c>
+      <c r="B67" t="s">
+        <v>92</v>
+      </c>
+      <c r="C67">
+        <v>12.413</v>
+      </c>
+      <c r="D67">
+        <v>500.05099999999999</v>
+      </c>
+      <c r="E67">
+        <v>373.44299999999998</v>
+      </c>
+      <c r="F67">
+        <v>280.06299999999999</v>
+      </c>
+      <c r="G67">
+        <v>1732.5709999999999</v>
+      </c>
+      <c r="H67">
+        <v>3952.7689999999998</v>
+      </c>
+      <c r="I67">
+        <v>231.48500000000001</v>
+      </c>
+      <c r="J67">
+        <v>422.6</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0</v>
+      </c>
+      <c r="M67">
+        <v>-0.112</v>
+      </c>
+      <c r="N67">
+        <v>407.50400000000002</v>
+      </c>
+      <c r="O67">
+        <v>1245.3030000000001</v>
+      </c>
+      <c r="P67">
+        <v>434.755</v>
+      </c>
+      <c r="Q67">
+        <v>-164.584</v>
+      </c>
+      <c r="R67">
+        <v>42825</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>2707.4659999999999</v>
+      </c>
+      <c r="U67">
+        <v>291.66300000000001</v>
+      </c>
+      <c r="V67">
+        <v>-56.203000000000003</v>
+      </c>
+      <c r="W67">
+        <v>0</v>
+      </c>
+      <c r="X67">
+        <v>0.67300000000000004</v>
+      </c>
+      <c r="Y67">
+        <v>11.689</v>
+      </c>
+      <c r="Z67">
+        <v>2.4660000000000002</v>
+      </c>
+      <c r="AA67">
+        <v>12.413</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A68" s="1">
+        <v>42916</v>
+      </c>
+      <c r="B68" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68">
+        <v>5.0350000000000001</v>
+      </c>
+      <c r="D68">
+        <v>504.666</v>
+      </c>
+      <c r="E68">
+        <v>392.84199999999998</v>
+      </c>
+      <c r="F68">
+        <v>273.375</v>
+      </c>
+      <c r="G68">
+        <v>1826.528</v>
+      </c>
+      <c r="H68">
+        <v>4143.4589999999998</v>
+      </c>
+      <c r="I68">
+        <v>277.56599999999997</v>
+      </c>
+      <c r="J68">
+        <v>422.8</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0</v>
+      </c>
+      <c r="M68">
+        <v>0</v>
+      </c>
+      <c r="N68">
+        <v>455.11</v>
+      </c>
+      <c r="O68">
+        <v>1332.462</v>
+      </c>
+      <c r="P68">
+        <v>434.89100000000002</v>
+      </c>
+      <c r="Q68">
+        <v>30.001000000000001</v>
+      </c>
+      <c r="R68">
+        <v>42916</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>2810.9969999999998</v>
+      </c>
+      <c r="U68">
+        <v>321.584</v>
+      </c>
+      <c r="V68">
+        <v>62.5</v>
+      </c>
+      <c r="W68">
+        <v>0</v>
+      </c>
+      <c r="X68">
+        <v>-1.0680000000000001</v>
+      </c>
+      <c r="Y68">
+        <v>11.586</v>
+      </c>
+      <c r="Z68">
+        <v>-7.718</v>
+      </c>
+      <c r="AA68">
+        <v>5.0350000000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A69" s="1">
+        <v>43008</v>
+      </c>
+      <c r="B69" t="s">
+        <v>94</v>
+      </c>
+      <c r="C69">
+        <v>22.067</v>
+      </c>
+      <c r="D69">
+        <v>534.14099999999996</v>
+      </c>
+      <c r="E69">
+        <v>419.70800000000003</v>
+      </c>
+      <c r="F69">
+        <v>299.00799999999998</v>
+      </c>
+      <c r="G69">
+        <v>1892.451</v>
+      </c>
+      <c r="H69">
+        <v>4185.7280000000001</v>
+      </c>
+      <c r="I69">
+        <v>273.95800000000003</v>
+      </c>
+      <c r="J69">
+        <v>422.9</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+      <c r="N69">
+        <v>466.45600000000002</v>
+      </c>
+      <c r="O69">
+        <v>1337.2809999999999</v>
+      </c>
+      <c r="P69">
+        <v>434.92700000000002</v>
+      </c>
+      <c r="Q69">
+        <v>7.4539999999999997</v>
+      </c>
+      <c r="R69">
+        <v>43008</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>2848.4470000000001</v>
+      </c>
+      <c r="U69">
+        <v>328.89400000000001</v>
+      </c>
+      <c r="V69">
+        <v>28.475000000000001</v>
+      </c>
+      <c r="W69">
+        <v>0</v>
+      </c>
+      <c r="X69">
+        <v>-2.84</v>
+      </c>
+      <c r="Y69">
+        <v>11.574999999999999</v>
+      </c>
+      <c r="Z69">
+        <v>6.6289999999999996</v>
+      </c>
+      <c r="AA69">
+        <v>22.067</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A70" s="1">
+        <v>43100</v>
+      </c>
+      <c r="B70" t="s">
+        <v>95</v>
+      </c>
+      <c r="C70">
+        <v>82.733999999999995</v>
+      </c>
+      <c r="D70">
+        <v>621.29499999999996</v>
+      </c>
+      <c r="E70">
+        <v>464.84699999999998</v>
+      </c>
+      <c r="F70">
+        <v>336.95699999999999</v>
+      </c>
+      <c r="G70">
+        <v>1976.6489999999999</v>
+      </c>
+      <c r="H70">
+        <v>4273.0119999999997</v>
+      </c>
+      <c r="I70">
+        <v>135.18199999999999</v>
+      </c>
+      <c r="J70">
+        <v>423.1</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>502.69600000000003</v>
+      </c>
+      <c r="O70">
+        <v>1342.7619999999999</v>
+      </c>
+      <c r="P70">
+        <v>435.00099999999998</v>
+      </c>
+      <c r="Q70">
+        <v>54.941000000000003</v>
+      </c>
+      <c r="R70">
+        <v>43100</v>
+      </c>
+      <c r="S70">
+        <v>8150</v>
+      </c>
+      <c r="T70">
+        <v>2930.25</v>
+      </c>
+      <c r="U70">
+        <v>383.82400000000001</v>
+      </c>
+      <c r="V70">
+        <v>69.364999999999995</v>
+      </c>
+      <c r="W70">
+        <v>0</v>
+      </c>
+      <c r="X70">
+        <v>3.5760000000000001</v>
+      </c>
+      <c r="Y70">
+        <v>11.481</v>
+      </c>
+      <c r="Z70">
+        <v>15.737</v>
+      </c>
+      <c r="AA70">
+        <v>82.733999999999995</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A71" s="1">
+        <v>43190</v>
+      </c>
+      <c r="B71" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71">
+        <v>656.774</v>
+      </c>
+      <c r="D71">
+        <v>551.51900000000001</v>
+      </c>
+      <c r="E71">
+        <v>430.36099999999999</v>
+      </c>
+      <c r="F71">
+        <v>302.20299999999997</v>
+      </c>
+      <c r="G71">
+        <v>1977.116</v>
+      </c>
+      <c r="H71">
+        <v>6214.9120000000003</v>
+      </c>
+      <c r="I71">
+        <v>244.065</v>
+      </c>
+      <c r="J71">
+        <v>434.678</v>
+      </c>
+      <c r="K71">
+        <v>0</v>
+      </c>
+      <c r="L71">
+        <v>0</v>
+      </c>
+      <c r="M71">
+        <v>-8.6999999999999994E-2</v>
+      </c>
+      <c r="N71">
+        <v>456.19799999999998</v>
+      </c>
+      <c r="O71">
+        <v>1726.8209999999999</v>
+      </c>
+      <c r="P71">
+        <v>435.04700000000003</v>
+      </c>
+      <c r="Q71">
+        <v>22.661999999999999</v>
+      </c>
+      <c r="R71">
+        <v>43190</v>
+      </c>
+      <c r="S71">
+        <v>0</v>
+      </c>
+      <c r="T71">
+        <v>4488.0910000000003</v>
+      </c>
+      <c r="U71">
+        <v>407.27199999999999</v>
+      </c>
+      <c r="V71">
+        <v>40.345999999999997</v>
+      </c>
+      <c r="W71">
+        <v>0</v>
+      </c>
+      <c r="X71">
+        <v>2.5150000000000001</v>
+      </c>
+      <c r="Y71">
+        <v>0</v>
+      </c>
+      <c r="Z71">
+        <v>1.4339999999999999</v>
+      </c>
+      <c r="AA71">
+        <v>656.774</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A72" s="1">
+        <v>43281</v>
+      </c>
+      <c r="B72" t="s">
+        <v>97</v>
+      </c>
+      <c r="C72">
+        <v>268.04300000000001</v>
+      </c>
+      <c r="D72">
+        <v>575.91099999999994</v>
+      </c>
+      <c r="E72">
+        <v>404.09100000000001</v>
+      </c>
+      <c r="F72">
+        <v>301.66699999999997</v>
+      </c>
+      <c r="G72">
+        <v>1992.3340000000001</v>
+      </c>
+      <c r="H72">
+        <v>6386.223</v>
+      </c>
+      <c r="I72">
+        <v>250.42099999999999</v>
+      </c>
+      <c r="J72">
+        <v>423.4</v>
+      </c>
+      <c r="K72">
+        <v>0</v>
+      </c>
+      <c r="L72">
+        <v>0</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
+      <c r="N72">
+        <v>442.42099999999999</v>
+      </c>
+      <c r="O72">
+        <v>1747.277</v>
+      </c>
+      <c r="P72">
+        <v>440.49700000000001</v>
+      </c>
+      <c r="Q72">
+        <v>-3.56</v>
+      </c>
+      <c r="R72">
+        <v>43281</v>
+      </c>
+      <c r="S72">
+        <v>0</v>
+      </c>
+      <c r="T72">
+        <v>4638.9459999999999</v>
+      </c>
+      <c r="U72">
+        <v>403.00599999999997</v>
+      </c>
+      <c r="V72">
+        <v>77.861999999999995</v>
+      </c>
+      <c r="W72">
+        <v>0</v>
+      </c>
+      <c r="X72">
+        <v>-2.016</v>
+      </c>
+      <c r="Y72">
+        <v>15.375999999999999</v>
+      </c>
+      <c r="Z72">
+        <v>-61.476999999999997</v>
+      </c>
+      <c r="AA72">
+        <v>268.04300000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A73" s="1">
+        <v>43373</v>
+      </c>
+      <c r="B73" t="s">
+        <v>98</v>
+      </c>
+      <c r="C73">
+        <v>269.32600000000002</v>
+      </c>
+      <c r="D73">
+        <v>545.13800000000003</v>
+      </c>
+      <c r="E73">
+        <v>381.52600000000001</v>
+      </c>
+      <c r="F73">
+        <v>286.71600000000001</v>
+      </c>
+      <c r="G73">
+        <v>2034.1969999999999</v>
+      </c>
+      <c r="H73">
+        <v>6718.6620000000003</v>
+      </c>
+      <c r="I73">
+        <v>247.828</v>
+      </c>
+      <c r="J73">
+        <v>423.6</v>
+      </c>
+      <c r="K73">
+        <v>0</v>
+      </c>
+      <c r="L73">
+        <v>0</v>
+      </c>
+      <c r="M73">
+        <v>0</v>
+      </c>
+      <c r="N73">
+        <v>453.15899999999999</v>
+      </c>
+      <c r="O73">
+        <v>1818.181</v>
+      </c>
+      <c r="P73">
+        <v>440.57499999999999</v>
+      </c>
+      <c r="Q73">
+        <v>31.504000000000001</v>
+      </c>
+      <c r="R73">
+        <v>43373</v>
+      </c>
+      <c r="S73">
+        <v>0</v>
+      </c>
+      <c r="T73">
+        <v>4900.4809999999998</v>
+      </c>
+      <c r="U73">
+        <v>434.517</v>
+      </c>
+      <c r="V73">
+        <v>62.277000000000001</v>
+      </c>
+      <c r="W73">
+        <v>0</v>
+      </c>
+      <c r="X73">
+        <v>-2.1760000000000002</v>
+      </c>
+      <c r="Y73">
+        <v>15.202999999999999</v>
+      </c>
+      <c r="Z73">
+        <v>-7.673</v>
+      </c>
+      <c r="AA73">
+        <v>269.32600000000002</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A74" s="1">
+        <v>43465</v>
+      </c>
+      <c r="B74" t="s">
+        <v>99</v>
+      </c>
+      <c r="C74">
+        <v>-828.529</v>
+      </c>
+      <c r="D74">
+        <v>616.84699999999998</v>
+      </c>
+      <c r="E74">
+        <v>392.44299999999998</v>
+      </c>
+      <c r="F74">
+        <v>337.86500000000001</v>
+      </c>
+      <c r="G74">
+        <v>2023.4780000000001</v>
+      </c>
+      <c r="H74">
+        <v>5611.0680000000002</v>
+      </c>
+      <c r="I74">
+        <v>122.45</v>
+      </c>
+      <c r="J74">
+        <v>423.7</v>
+      </c>
+      <c r="K74">
+        <v>0</v>
+      </c>
+      <c r="L74">
+        <v>0</v>
+      </c>
+      <c r="M74">
+        <v>0</v>
+      </c>
+      <c r="N74">
+        <v>450.79500000000002</v>
+      </c>
+      <c r="O74">
+        <v>1590.7370000000001</v>
+      </c>
+      <c r="P74">
+        <v>439.43</v>
+      </c>
+      <c r="Q74">
+        <v>-1.425</v>
+      </c>
+      <c r="R74">
+        <v>43465</v>
+      </c>
+      <c r="S74">
+        <v>8260</v>
+      </c>
+      <c r="T74">
+        <v>4020.3310000000001</v>
+      </c>
+      <c r="U74">
+        <v>431.52600000000001</v>
+      </c>
+      <c r="V74">
+        <v>105.009</v>
+      </c>
+      <c r="W74">
+        <v>0</v>
+      </c>
+      <c r="X74">
+        <v>-47.003</v>
+      </c>
+      <c r="Y74">
+        <v>15.237</v>
+      </c>
+      <c r="Z74">
+        <v>-0.97899999999999998</v>
+      </c>
+      <c r="AA74">
+        <v>-828.529</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A75" s="1">
+        <v>43555</v>
+      </c>
+      <c r="B75" t="s">
+        <v>100</v>
+      </c>
+      <c r="C75">
+        <v>865.19500000000005</v>
+      </c>
+      <c r="D75">
+        <v>553.97900000000004</v>
+      </c>
+      <c r="E75">
+        <v>391.69900000000001</v>
+      </c>
+      <c r="F75">
+        <v>311.762</v>
+      </c>
+      <c r="G75">
+        <v>2031.643</v>
+      </c>
+      <c r="H75">
+        <v>6862.9139999999998</v>
+      </c>
+      <c r="I75">
+        <v>234.41800000000001</v>
+      </c>
+      <c r="J75">
+        <v>426.20600000000002</v>
+      </c>
+      <c r="K75">
+        <v>0</v>
+      </c>
+      <c r="L75">
+        <v>0</v>
+      </c>
+      <c r="M75">
+        <v>-0.23699999999999999</v>
+      </c>
+      <c r="N75">
+        <v>444.30599999999998</v>
+      </c>
+      <c r="O75">
+        <v>1999.059</v>
+      </c>
+      <c r="P75">
+        <v>666.33399999999995</v>
+      </c>
+      <c r="Q75">
+        <v>24.373000000000001</v>
+      </c>
+      <c r="R75">
+        <v>43555</v>
+      </c>
+      <c r="S75">
+        <v>0</v>
+      </c>
+      <c r="T75">
+        <v>4863.8549999999996</v>
+      </c>
+      <c r="U75">
+        <v>455.89</v>
+      </c>
+      <c r="V75">
+        <v>42.942999999999998</v>
+      </c>
+      <c r="W75">
+        <v>0</v>
+      </c>
+      <c r="X75">
+        <v>2.161</v>
+      </c>
+      <c r="Y75">
+        <v>203.958</v>
+      </c>
+      <c r="Z75">
+        <v>9.5220000000000002</v>
+      </c>
+      <c r="AA75">
+        <v>865.19500000000005</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A76" s="1">
+        <v>43646</v>
+      </c>
+      <c r="B76" t="s">
+        <v>101</v>
+      </c>
+      <c r="C76">
+        <v>598.80999999999995</v>
+      </c>
+      <c r="D76">
+        <v>572.61900000000003</v>
+      </c>
+      <c r="E76">
+        <v>377.904</v>
+      </c>
+      <c r="F76">
+        <v>307.76900000000001</v>
+      </c>
+      <c r="G76">
+        <v>2087.94</v>
+      </c>
+      <c r="H76">
+        <v>7646.9449999999997</v>
+      </c>
+      <c r="I76">
+        <v>243.10900000000001</v>
+      </c>
+      <c r="J76">
+        <v>426.38</v>
+      </c>
+      <c r="K76">
+        <v>0</v>
+      </c>
+      <c r="L76">
+        <v>0</v>
+      </c>
+      <c r="M76">
+        <v>0</v>
+      </c>
+      <c r="N76">
+        <v>445.97699999999998</v>
+      </c>
+      <c r="O76">
+        <v>2160.1350000000002</v>
+      </c>
+      <c r="P76">
+        <v>661.07100000000003</v>
+      </c>
+      <c r="Q76">
+        <v>124.831</v>
+      </c>
+      <c r="R76">
+        <v>43646</v>
+      </c>
+      <c r="S76">
+        <v>0</v>
+      </c>
+      <c r="T76">
+        <v>5486.81</v>
+      </c>
+      <c r="U76">
+        <v>580.68399999999997</v>
+      </c>
+      <c r="V76">
+        <v>155.40199999999999</v>
+      </c>
+      <c r="W76">
+        <v>0</v>
+      </c>
+      <c r="X76">
+        <v>-15.645</v>
+      </c>
+      <c r="Y76">
+        <v>198.99100000000001</v>
+      </c>
+      <c r="Z76">
+        <v>7.1509999999999998</v>
+      </c>
+      <c r="AA76">
+        <v>598.80999999999995</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A77" s="1">
+        <v>43738</v>
+      </c>
+      <c r="B77" t="s">
+        <v>102</v>
+      </c>
+      <c r="C77">
+        <v>-258.81599999999997</v>
+      </c>
+      <c r="D77">
+        <v>560.63300000000004</v>
+      </c>
+      <c r="E77">
+        <v>356.02499999999998</v>
+      </c>
+      <c r="F77">
+        <v>307.02600000000001</v>
+      </c>
+      <c r="G77">
+        <v>2047.6320000000001</v>
+      </c>
+      <c r="H77">
+        <v>7177.116</v>
+      </c>
+      <c r="I77">
+        <v>247.73500000000001</v>
+      </c>
+      <c r="J77">
+        <v>426.608</v>
+      </c>
+      <c r="K77">
+        <v>0</v>
+      </c>
+      <c r="L77">
+        <v>0</v>
+      </c>
+      <c r="M77">
+        <v>0</v>
+      </c>
+      <c r="N77">
+        <v>434.04</v>
+      </c>
+      <c r="O77">
+        <v>2045.924</v>
+      </c>
+      <c r="P77">
+        <v>665.87099999999998</v>
+      </c>
+      <c r="Q77">
+        <v>-20.015999999999998</v>
+      </c>
+      <c r="R77">
+        <v>43738</v>
+      </c>
+      <c r="S77">
+        <v>0</v>
+      </c>
+      <c r="T77">
+        <v>5131.192</v>
+      </c>
+      <c r="U77">
+        <v>561.07100000000003</v>
+      </c>
+      <c r="V77">
+        <v>99.75</v>
+      </c>
+      <c r="W77">
+        <v>0</v>
+      </c>
+      <c r="X77">
+        <v>-4.4909999999999997</v>
+      </c>
+      <c r="Y77">
+        <v>203.8</v>
+      </c>
+      <c r="Z77">
+        <v>-19.088999999999999</v>
+      </c>
+      <c r="AA77">
+        <v>-258.81599999999997</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A78" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B78" t="s">
+        <v>103</v>
+      </c>
+      <c r="C78">
+        <v>553.48599999999999</v>
+      </c>
+      <c r="D78">
+        <v>624.428</v>
+      </c>
+      <c r="E78">
+        <v>392.67200000000003</v>
+      </c>
+      <c r="F78">
+        <v>342.53899999999999</v>
+      </c>
+      <c r="G78">
+        <v>2180.1550000000002</v>
+      </c>
+      <c r="H78">
+        <v>8008.8590000000004</v>
+      </c>
+      <c r="I78">
+        <v>107.014</v>
+      </c>
+      <c r="J78">
+        <v>2.379</v>
+      </c>
+      <c r="K78">
+        <v>0</v>
+      </c>
+      <c r="L78">
+        <v>0</v>
+      </c>
+      <c r="M78">
+        <v>0</v>
+      </c>
+      <c r="N78">
+        <v>905.495</v>
+      </c>
+      <c r="O78">
+        <v>2253.8020000000001</v>
+      </c>
+      <c r="P78">
+        <v>651.13400000000001</v>
+      </c>
+      <c r="Q78">
+        <v>99.299000000000007</v>
+      </c>
+      <c r="R78">
+        <v>43830</v>
+      </c>
+      <c r="S78">
+        <v>8120</v>
+      </c>
+      <c r="T78">
+        <v>5755.0569999999998</v>
+      </c>
+      <c r="U78">
+        <v>660.67200000000003</v>
+      </c>
+      <c r="V78">
+        <v>159.80199999999999</v>
+      </c>
+      <c r="W78">
+        <v>0</v>
+      </c>
+      <c r="X78">
+        <v>-4.7830000000000004</v>
+      </c>
+      <c r="Y78">
+        <v>187.21799999999999</v>
+      </c>
+      <c r="Z78">
+        <v>-37.502000000000002</v>
+      </c>
+      <c r="AA78">
+        <v>553.48599999999999</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A79" s="1">
+        <v>43921</v>
+      </c>
+      <c r="B79" t="s">
+        <v>104</v>
+      </c>
+      <c r="C79">
+        <v>685.91200000000003</v>
+      </c>
+      <c r="D79">
+        <v>571.64400000000001</v>
+      </c>
+      <c r="E79">
+        <v>380.476</v>
+      </c>
+      <c r="F79">
+        <v>315.86799999999999</v>
+      </c>
+      <c r="G79">
+        <v>2082.587</v>
+      </c>
+      <c r="H79">
+        <v>8684.3590000000004</v>
+      </c>
+      <c r="I79">
+        <v>118.221</v>
+      </c>
+      <c r="J79">
+        <v>1.2050000000000001</v>
+      </c>
+      <c r="K79">
+        <v>0</v>
+      </c>
+      <c r="L79">
+        <v>0</v>
+      </c>
+      <c r="M79">
+        <v>-1.415</v>
+      </c>
+      <c r="N79">
+        <v>869.25400000000002</v>
+      </c>
+      <c r="O79">
+        <v>2391.2800000000002</v>
+      </c>
+      <c r="P79">
+        <v>648.40499999999997</v>
+      </c>
+      <c r="Q79">
+        <v>-54.207999999999998</v>
+      </c>
+      <c r="R79">
+        <v>43921</v>
+      </c>
+      <c r="S79">
+        <v>0</v>
+      </c>
+      <c r="T79">
+        <v>6293.0789999999997</v>
+      </c>
+      <c r="U79">
+        <v>603.55100000000004</v>
+      </c>
+      <c r="V79">
+        <v>62.808</v>
+      </c>
+      <c r="W79">
+        <v>0</v>
+      </c>
+      <c r="X79">
+        <v>-98.617000000000004</v>
+      </c>
+      <c r="Y79">
+        <v>186.452</v>
+      </c>
+      <c r="Z79">
+        <v>9.2309999999999999</v>
+      </c>
+      <c r="AA79">
+        <v>685.91200000000003</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A80" s="1">
+        <v>44012</v>
+      </c>
+      <c r="B80" t="s">
+        <v>105</v>
+      </c>
+      <c r="C80">
+        <v>966.42899999999997</v>
+      </c>
+      <c r="D80">
+        <v>536.88</v>
+      </c>
+      <c r="E80">
+        <v>360.85399999999998</v>
+      </c>
+      <c r="F80">
+        <v>292.988</v>
+      </c>
+      <c r="G80">
+        <v>2132.5839999999998</v>
+      </c>
+      <c r="H80">
+        <v>10097.307000000001</v>
+      </c>
+      <c r="I80">
+        <v>130.905</v>
+      </c>
+      <c r="J80">
+        <v>1.133</v>
+      </c>
+      <c r="K80">
+        <v>0</v>
+      </c>
+      <c r="L80">
+        <v>0</v>
+      </c>
+      <c r="M80">
+        <v>0</v>
+      </c>
+      <c r="N80">
+        <v>926.89499999999998</v>
+      </c>
+      <c r="O80">
+        <v>2743.9050000000002</v>
+      </c>
+      <c r="P80">
+        <v>645.779</v>
+      </c>
+      <c r="Q80">
+        <v>3.6890000000000001</v>
+      </c>
+      <c r="R80">
+        <v>44012</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>7353.402</v>
+      </c>
+      <c r="U80">
+        <v>607.58399999999995</v>
+      </c>
+      <c r="V80">
+        <v>92.122</v>
+      </c>
+      <c r="W80">
+        <v>0</v>
+      </c>
+      <c r="X80">
+        <v>-2.9790000000000001</v>
+      </c>
+      <c r="Y80">
+        <v>184.203</v>
+      </c>
+      <c r="Z80">
+        <v>14.196999999999999</v>
+      </c>
+      <c r="AA80">
+        <v>966.42899999999997</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A81" s="1">
+        <v>44104</v>
+      </c>
+      <c r="B81" t="s">
+        <v>106</v>
+      </c>
+      <c r="C81">
+        <v>1314.8240000000001</v>
+      </c>
+      <c r="D81">
+        <v>647.26300000000003</v>
+      </c>
+      <c r="E81">
+        <v>402.24099999999999</v>
+      </c>
+      <c r="F81">
+        <v>367.31099999999998</v>
+      </c>
+      <c r="G81">
+        <v>2323.8609999999999</v>
+      </c>
+      <c r="H81">
+        <v>12020.931</v>
+      </c>
+      <c r="I81">
+        <v>132.994</v>
+      </c>
+      <c r="J81">
+        <v>1.141</v>
+      </c>
+      <c r="K81">
+        <v>0</v>
+      </c>
+      <c r="L81">
+        <v>0</v>
+      </c>
+      <c r="M81">
+        <v>0</v>
+      </c>
+      <c r="N81">
+        <v>986.65700000000004</v>
+      </c>
+      <c r="O81">
+        <v>3195.7860000000001</v>
+      </c>
+      <c r="P81">
+        <v>645.40800000000002</v>
+      </c>
+      <c r="Q81">
+        <v>232.96899999999999</v>
+      </c>
+      <c r="R81">
+        <v>44104</v>
+      </c>
+      <c r="S81">
+        <v>0</v>
+      </c>
+      <c r="T81">
+        <v>8825.1450000000004</v>
+      </c>
+      <c r="U81">
+        <v>840.32500000000005</v>
+      </c>
+      <c r="V81">
+        <v>135.66399999999999</v>
+      </c>
+      <c r="W81">
+        <v>0</v>
+      </c>
+      <c r="X81">
+        <v>0.439</v>
+      </c>
+      <c r="Y81">
+        <v>183.244</v>
+      </c>
+      <c r="Z81">
+        <v>110.58</v>
+      </c>
+      <c r="AA81">
+        <v>1314.8240000000001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27" x14ac:dyDescent="0.45">
+      <c r="A82" s="1">
+        <v>44196</v>
+      </c>
+      <c r="B82" t="s">
+        <v>107</v>
+      </c>
+      <c r="C82">
         <v>839.10199999999998</v>
       </c>
-      <c r="D42">
+      <c r="D82">
         <v>789.83900000000006</v>
       </c>
-      <c r="E42">
+      <c r="E82">
         <v>419.42399999999998</v>
       </c>
-      <c r="F42">
+      <c r="F82">
         <v>458.255</v>
       </c>
-      <c r="G42">
+      <c r="G82">
         <v>2139.835</v>
       </c>
-      <c r="H42">
+      <c r="H82">
         <v>12972.618</v>
       </c>
-      <c r="I42">
+      <c r="I82">
         <v>139.45099999999999</v>
       </c>
-      <c r="J42">
+      <c r="J82">
         <v>1.258</v>
       </c>
-      <c r="K42">
-        <v>0</v>
-      </c>
-      <c r="L42">
-        <v>0</v>
-      </c>
-      <c r="M42">
-        <v>0</v>
-      </c>
-      <c r="N42">
+      <c r="K82">
+        <v>0</v>
+      </c>
+      <c r="L82">
+        <v>0</v>
+      </c>
+      <c r="M82">
+        <v>0</v>
+      </c>
+      <c r="N82">
         <v>631.53599999999994</v>
       </c>
-      <c r="O42">
+      <c r="O82">
         <v>3092.6779999999999</v>
       </c>
-      <c r="P42">
+      <c r="P82">
         <v>225.691</v>
       </c>
-      <c r="Q42">
+      <c r="Q82">
         <v>-177.98599999999999</v>
       </c>
-      <c r="R42">
+      <c r="R82">
         <v>44196</v>
       </c>
-      <c r="S42">
+      <c r="S82">
         <v>8000</v>
       </c>
-      <c r="T42">
+      <c r="T82">
         <v>9879.94</v>
       </c>
-      <c r="U42">
+      <c r="U82">
         <v>662.20500000000004</v>
       </c>
-      <c r="V42">
+      <c r="V82">
         <v>284.73399999999998</v>
       </c>
-      <c r="W42">
-        <v>0</v>
-      </c>
-      <c r="X42">
+      <c r="W82">
+        <v>0</v>
+      </c>
+      <c r="X82">
         <v>-421.88400000000001</v>
       </c>
-      <c r="Y42">
+      <c r="Y82">
         <v>186.12799999999999</v>
       </c>
-      <c r="Z42">
+      <c r="Z82">
         <v>-14.407</v>
       </c>
-      <c r="AA42">
+      <c r="AA82">
         <v>839.10199999999998</v>
       </c>
     </row>
